--- a/Копия 1.xlsx
+++ b/Копия 1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -648,8 +648,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,7 +695,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -809,11 +813,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -866,19 +883,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -916,7 +969,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -950,6 +1003,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -984,9 +1038,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1159,14 +1214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="7" customWidth="1"/>
@@ -1187,7 +1242,7 @@
     <col min="17" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" s="9" customFormat="1">
+    <row r="1" spans="1:112" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1502,7 @@
       <c r="DF1" s="8"/>
       <c r="DG1" s="8"/>
     </row>
-    <row r="2" spans="1:112">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1763,7 @@
       <c r="DG2" s="11"/>
       <c r="DH2" s="6"/>
     </row>
-    <row r="3" spans="1:112">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1969,7 +2024,7 @@
       <c r="DG3" s="11"/>
       <c r="DH3" s="6"/>
     </row>
-    <row r="4" spans="1:112">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -2230,7 +2285,7 @@
       <c r="DG4" s="11"/>
       <c r="DH4" s="6"/>
     </row>
-    <row r="5" spans="1:112">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2491,7 +2546,7 @@
       <c r="DG5" s="11"/>
       <c r="DH5" s="6"/>
     </row>
-    <row r="6" spans="1:112">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2752,7 +2807,7 @@
       <c r="DG6" s="11"/>
       <c r="DH6" s="6"/>
     </row>
-    <row r="7" spans="1:112">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -3013,7 +3068,7 @@
       <c r="DG7" s="11"/>
       <c r="DH7" s="6"/>
     </row>
-    <row r="8" spans="1:112">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -3274,7 +3329,7 @@
       <c r="DG8" s="11"/>
       <c r="DH8" s="6"/>
     </row>
-    <row r="9" spans="1:112">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -3535,7 +3590,7 @@
       <c r="DG9" s="11"/>
       <c r="DH9" s="6"/>
     </row>
-    <row r="10" spans="1:112">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -3796,7 +3851,7 @@
       <c r="DG10" s="11"/>
       <c r="DH10" s="6"/>
     </row>
-    <row r="11" spans="1:112">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4057,7 +4112,7 @@
       <c r="DG11" s="11"/>
       <c r="DH11" s="11"/>
     </row>
-    <row r="12" spans="1:112">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -4318,7 +4373,7 @@
       <c r="DG12" s="11"/>
       <c r="DH12" s="6"/>
     </row>
-    <row r="13" spans="1:112">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -4579,7 +4634,7 @@
       <c r="DG13" s="11"/>
       <c r="DH13" s="6"/>
     </row>
-    <row r="14" spans="1:112">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4840,7 +4895,7 @@
       <c r="DG14" s="11"/>
       <c r="DH14" s="6"/>
     </row>
-    <row r="15" spans="1:112">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -5101,7 +5156,7 @@
       <c r="DG15" s="6"/>
       <c r="DH15" s="6"/>
     </row>
-    <row r="16" spans="1:112">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5362,7 +5417,7 @@
       <c r="DG16" s="11"/>
       <c r="DH16" s="6"/>
     </row>
-    <row r="17" spans="1:112 16384:16384">
+    <row r="17" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5623,7 +5678,7 @@
       <c r="DG17" s="6"/>
       <c r="DH17" s="6"/>
     </row>
-    <row r="18" spans="1:112 16384:16384">
+    <row r="18" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -5884,7 +5939,7 @@
       <c r="DG18" s="11"/>
       <c r="DH18" s="11"/>
     </row>
-    <row r="19" spans="1:112 16384:16384">
+    <row r="19" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -6145,7 +6200,7 @@
       <c r="DG19" s="11"/>
       <c r="DH19" s="11"/>
     </row>
-    <row r="20" spans="1:112 16384:16384">
+    <row r="20" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -6260,7 +6315,7 @@
       <c r="DH20" s="6"/>
       <c r="XFD20" s="6"/>
     </row>
-    <row r="21" spans="1:112 16384:16384">
+    <row r="21" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -6374,7 +6429,7 @@
       <c r="DG21" s="6"/>
       <c r="DH21" s="6"/>
     </row>
-    <row r="22" spans="1:112 16384:16384">
+    <row r="22" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6486,7 +6541,7 @@
       <c r="DG22" s="6"/>
       <c r="DH22" s="6"/>
     </row>
-    <row r="23" spans="1:112 16384:16384">
+    <row r="23" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -6501,16 +6556,46 @@
       <c r="F23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="G23" s="28">
+        <f>G25/$Q$25</f>
+        <v>0.41428571428571431</v>
+      </c>
+      <c r="H23" s="28">
+        <f t="shared" ref="H23:P23" si="0">H25/$Q$25</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="L23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="M23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="N23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="P23" s="28">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
       <c r="R23" s="6" t="s">
         <v>79</v>
       </c>
@@ -6609,12 +6694,12 @@
       <c r="DG23" s="6"/>
       <c r="DH23" s="6"/>
     </row>
-    <row r="24" spans="1:112 16384:16384">
+    <row r="24" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:B41" si="0">MAX(B2:BW2)</f>
+        <f t="shared" ref="B24:B41" si="1">MAX(B2:BW2)</f>
         <v>202</v>
       </c>
       <c r="C24" s="1">
@@ -6692,20 +6777,20 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:112 16384:16384">
+    <row r="25" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:C41" si="1">MIN(B3,B3:BW3)</f>
+        <f t="shared" ref="C25:C41" si="2">MIN(B3,B3:BW3)</f>
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:D41" si="2">(B25-C25)/10</f>
+        <f t="shared" ref="D25:D41" si="3">(B25-C25)/10</f>
         <v>4.8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -6741,6 +6826,10 @@
       <c r="P25" s="4">
         <v>1</v>
       </c>
+      <c r="Q25" s="7">
+        <f>SUM(G25:P25)</f>
+        <v>70</v>
+      </c>
       <c r="R25" s="16" t="s">
         <v>25</v>
       </c>
@@ -6775,20 +6864,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:112 16384:16384">
+    <row r="26" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8</v>
       </c>
       <c r="F26" s="14"/>
@@ -6803,35 +6892,65 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
     </row>
-    <row r="27" spans="1:112 16384:16384">
+    <row r="27" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.6</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
+      <c r="G27" s="28">
+        <f>G29/$Q$29</f>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" ref="H27:P27" si="4">H29/$Q$29</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="I27" s="28">
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="28">
+        <f t="shared" si="4"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="M27" s="28">
+        <f t="shared" si="4"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="N27" s="28">
+        <f t="shared" si="4"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="O27" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="28">
+        <f t="shared" si="4"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
       <c r="R27" s="11" t="s">
         <v>90</v>
       </c>
@@ -6846,20 +6965,20 @@
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
     </row>
-    <row r="28" spans="1:112 16384:16384">
+    <row r="28" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.1</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -6929,20 +7048,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:112 16384:16384">
+    <row r="29" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.8</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -6978,6 +7097,10 @@
       <c r="P29" s="4">
         <v>1</v>
       </c>
+      <c r="Q29" s="7">
+        <f>SUM(G29:P29)</f>
+        <v>70</v>
+      </c>
       <c r="R29" s="18" t="s">
         <v>25</v>
       </c>
@@ -7012,60 +7135,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:112 16384:16384">
+    <row r="30" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
     </row>
-    <row r="31" spans="1:112 16384:16384">
+    <row r="31" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.2</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="G31" s="31">
+        <f>G33/$Q$33</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="H31" s="31">
+        <f t="shared" ref="H31:P31" si="5">H33/$Q$33</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="5"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="J31" s="31">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K31" s="31">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="31">
+        <f t="shared" si="5"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="M31" s="31">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="N31" s="31">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="O31" s="31">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="P31" s="31">
+        <f t="shared" si="5"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
       <c r="R31" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:112 16384:16384">
+    <row r="32" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="F32" s="15" t="s">
@@ -7135,20 +7298,20 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.2</v>
       </c>
       <c r="F33" s="15" t="s">
@@ -7184,6 +7347,10 @@
       <c r="P33" s="2">
         <v>1</v>
       </c>
+      <c r="Q33" s="7">
+        <f>SUM(G33:P33)</f>
+        <v>70</v>
+      </c>
       <c r="R33" s="2" t="s">
         <v>25</v>
       </c>
@@ -7218,60 +7385,101 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.3</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>202</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.2</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="G35" s="30">
+        <f>G37/$Q$37</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H35" s="30">
+        <f t="shared" ref="H35:P35" si="6">H37/$Q$37</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I35" s="30">
+        <f t="shared" si="6"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="J35" s="30">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="30">
+        <f t="shared" si="6"/>
+        <v>0.24285714285714285</v>
+      </c>
+      <c r="L35" s="30">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="M35" s="30">
+        <f t="shared" si="6"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="N35" s="30">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="O35" s="30">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="P35" s="30">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="Q35" s="30"/>
       <c r="R35" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.7</v>
       </c>
       <c r="F36" s="15" t="s">
@@ -7341,20 +7549,20 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
       <c r="F37" s="15" t="s">
@@ -7390,6 +7598,10 @@
       <c r="P37" s="16">
         <v>1</v>
       </c>
+      <c r="Q37" s="7">
+        <f>SUM(G37:P37)</f>
+        <v>70</v>
+      </c>
       <c r="R37" s="18" t="s">
         <v>25</v>
       </c>
@@ -7424,41 +7636,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="G39" s="30">
+        <f>G41/$Q$41</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H39" s="30">
+        <f t="shared" ref="H39:P39" si="7">H41/$Q$41</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="I39" s="30">
+        <f t="shared" si="7"/>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="J39" s="30">
+        <f t="shared" si="7"/>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="K39" s="30">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="L39" s="30">
+        <f t="shared" si="7"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="M39" s="30">
+        <f t="shared" si="7"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="N39" s="30">
+        <f t="shared" si="7"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="O39" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="30">
+        <f t="shared" si="7"/>
+        <v>2.8571428571428571E-2</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>31</v>
@@ -7472,20 +7724,20 @@
       <c r="AA39" s="19"/>
       <c r="AB39" s="19"/>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="F40" s="15" t="s">
@@ -7555,20 +7807,20 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="F41" s="15" t="s">
@@ -7604,6 +7856,10 @@
       <c r="P41" s="16">
         <v>2</v>
       </c>
+      <c r="Q41" s="7">
+        <f>SUM(G41:P41)</f>
+        <v>70</v>
+      </c>
       <c r="R41" s="18" t="s">
         <v>25</v>
       </c>
@@ -7638,19 +7894,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="F43" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="G43" s="29">
+        <f>G45/$Q$45</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="H43" s="29">
+        <f t="shared" ref="H43:P43" si="8">H45/$Q$45</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="I43" s="29">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="J43" s="29">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K43" s="29">
+        <f t="shared" si="8"/>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="L43" s="29">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M43" s="29">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="N43" s="29">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="O43" s="29">
+        <f t="shared" si="8"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="P43" s="29">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
       <c r="R43" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="F44" s="15" t="s">
         <v>56</v>
@@ -7719,7 +8015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="F45" s="15" t="s">
         <v>25</v>
@@ -7754,6 +8050,10 @@
       <c r="P45" s="16">
         <v>1</v>
       </c>
+      <c r="Q45" s="7">
+        <f>SUM(G45:P45)</f>
+        <v>70</v>
+      </c>
       <c r="R45" s="18" t="s">
         <v>25</v>
       </c>
@@ -7788,19 +8088,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="F47" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="G47" s="30">
+        <f>G49/$Q$49</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="H47" s="30">
+        <f t="shared" ref="H47:P47" si="9">H49/$Q$49</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I47" s="30">
+        <f t="shared" si="9"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="J47" s="30">
+        <f t="shared" si="9"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="K47" s="30">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="L47" s="30">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="M47" s="30">
+        <f t="shared" si="9"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="N47" s="30">
+        <f t="shared" si="9"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="O47" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="30">
+        <f t="shared" si="9"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
       <c r="R47" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="F48" s="15" t="s">
         <v>135</v>
@@ -7869,7 +8209,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:75">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F49" s="15" t="s">
         <v>25</v>
       </c>
@@ -7903,6 +8243,10 @@
       <c r="P49" s="16">
         <v>2</v>
       </c>
+      <c r="Q49" s="7">
+        <f>SUM(G49:P49)</f>
+        <v>70</v>
+      </c>
       <c r="R49" s="18" t="s">
         <v>25</v>
       </c>
@@ -7937,15 +8281,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:75">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F51" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="G51" s="30">
+        <f>G53/$Q$53</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H51" s="30">
+        <f t="shared" ref="H51:P51" si="10">H53/$Q$53</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I51" s="30">
+        <f t="shared" si="10"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="J51" s="30">
+        <f t="shared" si="10"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="K51" s="30">
+        <f t="shared" si="10"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="L51" s="30">
+        <f t="shared" si="10"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="M51" s="30">
+        <f t="shared" si="10"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="N51" s="30">
+        <f t="shared" si="10"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="O51" s="30">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="P51" s="30">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
       <c r="R51" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:75">
+    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F52" s="15" t="s">
         <v>56</v>
       </c>
@@ -8013,7 +8397,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:75">
+    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F53" s="15" t="s">
         <v>25</v>
       </c>
@@ -8047,6 +8431,10 @@
       <c r="P53" s="16">
         <v>5</v>
       </c>
+      <c r="Q53" s="7">
+        <f>SUM(G53:P53)</f>
+        <v>70</v>
+      </c>
       <c r="R53" s="18" t="s">
         <v>25</v>
       </c>
@@ -8081,12 +8469,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:75">
+    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="G55" s="30">
+        <f>G57/$Q$57</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="H55" s="30">
+        <f t="shared" ref="H55:P55" si="11">H57/$Q$57</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="I55" s="30">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="J55" s="30">
+        <f t="shared" si="11"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="K55" s="30">
+        <f t="shared" si="11"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="L55" s="30">
+        <f t="shared" si="11"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="M55" s="30">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="N55" s="30">
+        <f t="shared" si="11"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="O55" s="30">
+        <f t="shared" si="11"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="P55" s="30">
+        <f t="shared" si="11"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:75">
+    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F56" s="15" t="s">
         <v>191</v>
       </c>
@@ -8121,7 +8549,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:75">
+    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F57" s="15" t="s">
         <v>25</v>
       </c>
@@ -8155,13 +8583,17 @@
       <c r="P57" s="16">
         <v>1</v>
       </c>
+      <c r="Q57" s="7">
+        <f>SUM(G57:P57)</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="59" spans="1:75">
+    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F59" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:75">
+    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F60" s="15" t="s">
         <v>14</v>
       </c>
@@ -8196,7 +8628,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:75">
+    <row r="61" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F61" s="15" t="s">
         <v>25</v>
       </c>
@@ -8227,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:75">
+    <row r="62" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>205</v>
       </c>
@@ -8306,7 +8738,7 @@
       <c r="BV62" s="11"/>
       <c r="BW62" s="11"/>
     </row>
-    <row r="63" spans="1:75">
+    <row r="63" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>193</v>
       </c>
@@ -8315,299 +8747,299 @@
         <v>201</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ref="C63:BN63" si="3">C5+C6</f>
+        <f t="shared" ref="C63:BN63" si="12">C5+C6</f>
         <v>266</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>238</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>205</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>223</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>151</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>189</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>287</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>303</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>209</v>
       </c>
       <c r="O63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>228</v>
       </c>
       <c r="P63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>211</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>260</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
       <c r="U63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>273</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>235</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="Y63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>218</v>
       </c>
       <c r="Z63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="AA63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>327</v>
       </c>
       <c r="AC63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>242</v>
       </c>
       <c r="AD63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>215</v>
       </c>
       <c r="AE63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>133</v>
       </c>
       <c r="AF63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>374</v>
       </c>
       <c r="AG63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>400</v>
       </c>
       <c r="AH63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>376</v>
       </c>
       <c r="AI63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>411</v>
       </c>
       <c r="AJ63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>143</v>
       </c>
       <c r="AK63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>531</v>
       </c>
       <c r="AL63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>355</v>
       </c>
       <c r="AM63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>229</v>
       </c>
       <c r="AN63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>279</v>
       </c>
       <c r="AO63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>204</v>
       </c>
       <c r="AP63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>359</v>
       </c>
       <c r="AQ63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>474</v>
       </c>
       <c r="AR63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>386</v>
       </c>
       <c r="AS63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>273</v>
       </c>
       <c r="AT63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>218</v>
       </c>
       <c r="AU63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="AV63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>319</v>
       </c>
       <c r="AW63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>193</v>
       </c>
       <c r="AX63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>243</v>
       </c>
       <c r="AY63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>383</v>
       </c>
       <c r="AZ63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>359</v>
       </c>
       <c r="BA63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>367</v>
       </c>
       <c r="BB63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>184</v>
       </c>
       <c r="BC63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>191</v>
       </c>
       <c r="BD63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>337</v>
       </c>
       <c r="BE63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>216</v>
       </c>
       <c r="BF63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>220</v>
       </c>
       <c r="BG63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="BH63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>229</v>
       </c>
       <c r="BI63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>536</v>
       </c>
       <c r="BJ63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>364</v>
       </c>
       <c r="BK63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>296</v>
       </c>
       <c r="BL63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="BM63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>232</v>
       </c>
       <c r="BN63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>348</v>
       </c>
       <c r="BO63" s="2">
-        <f t="shared" ref="BO63:BW63" si="4">BO5+BO6</f>
+        <f t="shared" ref="BO63:BW63" si="13">BO5+BO6</f>
         <v>486</v>
       </c>
       <c r="BP63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>465</v>
       </c>
       <c r="BQ63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>151</v>
       </c>
       <c r="BR63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>191</v>
       </c>
       <c r="BS63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>309</v>
       </c>
       <c r="BT63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>295</v>
       </c>
       <c r="BU63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>252</v>
       </c>
       <c r="BV63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>113</v>
       </c>
       <c r="BW63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:75">
+    <row r="64" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>207</v>
       </c>
@@ -8689,7 +9121,7 @@
       <c r="BV64" s="2"/>
       <c r="BW64" s="2"/>
     </row>
-    <row r="65" spans="1:75">
+    <row r="65" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>208</v>
       </c>
@@ -8771,7 +9203,7 @@
       <c r="BV65" s="2"/>
       <c r="BW65" s="2"/>
     </row>
-    <row r="66" spans="1:75" ht="15.75" thickBot="1">
+    <row r="66" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
@@ -8853,7 +9285,7 @@
       <c r="BV66" s="2"/>
       <c r="BW66" s="2"/>
     </row>
-    <row r="67" spans="1:75" ht="15.75" thickBot="1">
+    <row r="67" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
         <v>192</v>
       </c>
@@ -8963,25 +9395,829 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="str">
+        <f>Лист1!F23</f>
+        <v>ПТИ</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
+        <f>Лист1!I23</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <f>Лист1!H23</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="B3" s="37">
+        <f>B2+A3</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
+        <f>Лист1!K23</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="B4" s="37">
+        <f t="shared" ref="B4:B11" si="0">B3+A4</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <f>Лист1!P23</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="B5" s="37">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <f>Лист1!J23</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="B6" s="37">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <f>Лист1!O23</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="B7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <f>Лист1!N23</f>
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.24285714285714285</v>
+      </c>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <f>Лист1!L23</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="B9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
+        <f>Лист1!M23</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="B10" s="37">
+        <f t="shared" si="0"/>
+        <v>0.58571428571428574</v>
+      </c>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
+        <f>Лист1!G23</f>
+        <v>0.41428571428571431</v>
+      </c>
+      <c r="B11" s="37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="str">
+        <f>Лист1!F27</f>
+        <v>К,Na</v>
+      </c>
+      <c r="B13" s="34">
+        <f>Лист1!O27</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="34">
+        <f>Лист1!M27</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D13" s="34">
+        <f>Лист1!N27</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="E13" s="34">
+        <f>Лист1!P27</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="F13" s="34">
+        <f>Лист1!L27</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G13" s="34">
+        <f>Лист1!J27</f>
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="34">
+        <f>Лист1!K27</f>
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="34">
+        <f>Лист1!I27</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="J13" s="34">
+        <f>Лист1!H27</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="K13" s="34">
+        <f>Лист1!G27</f>
+        <v>0.27142857142857141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="35">
+        <v>0</v>
+      </c>
+      <c r="C14" s="35">
+        <f>B14+C13</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" ref="D14:K14" si="1">C14+D13</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="F14" s="35">
+        <f t="shared" si="1"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G14" s="35">
+        <f t="shared" si="1"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="H14" s="35">
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I14" s="35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="35">
+        <f t="shared" si="1"/>
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="K14" s="35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="str">
+        <f>Лист1!F31</f>
+        <v>СРБ,АСО</v>
+      </c>
+      <c r="B16" s="40">
+        <f>Лист1!O31</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C16" s="40">
+        <f>Лист1!P31</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D16" s="40">
+        <f>Лист1!M31</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="E16" s="40">
+        <f>Лист1!H31</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="F16" s="40">
+        <f>Лист1!N31</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="G16" s="40">
+        <f>Лист1!L31</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="H16" s="40">
+        <f>Лист1!J31</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I16" s="40">
+        <f>Лист1!I31</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="J16" s="40">
+        <f>Лист1!G31</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="K16" s="40">
+        <f>Лист1!K31</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="35">
+        <f>B14+B16</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C17" s="35">
+        <f>B14+C16</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D17" s="35">
+        <f t="shared" ref="D17:K17" si="2">D16+C17</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" si="2"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="F17" s="35">
+        <f t="shared" si="2"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="G17" s="35">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="35">
+        <f t="shared" si="2"/>
+        <v>0.44285714285714284</v>
+      </c>
+      <c r="I17" s="35">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="J17" s="35">
+        <f t="shared" si="2"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="K17" s="35">
+        <f t="shared" si="2"/>
+        <v>0.98571428571428577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="str">
+        <f>Лист1!F35</f>
+        <v>Глюкоза</v>
+      </c>
+      <c r="B19" s="40">
+        <f>Лист1!N35</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C19" s="40">
+        <f>Лист1!O35</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D19" s="40">
+        <f>Лист1!P35</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="E19" s="40">
+        <f>Лист1!G35</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="F19" s="40">
+        <f>Лист1!I35</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="G19" s="40">
+        <f>Лист1!M35</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="H19" s="40">
+        <f>Лист1!H35</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I19" s="40">
+        <f>Лист1!J35</f>
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="40">
+        <f>Лист1!L35</f>
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="40">
+        <f>Лист1!K35</f>
+        <v>0.24285714285714285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="35">
+        <f>B19+B14</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C20" s="35">
+        <f>B20+C19</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D20" s="35">
+        <f t="shared" ref="D20:K20" si="3">C20+D19</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F20" s="35">
+        <f t="shared" si="3"/>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="G20" s="35">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="H20" s="35">
+        <f t="shared" si="3"/>
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="I20" s="35">
+        <f t="shared" si="3"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="J20" s="35">
+        <f t="shared" si="3"/>
+        <v>0.75714285714285712</v>
+      </c>
+      <c r="K20" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="str">
+        <f>Лист1!F39</f>
+        <v>Холестерин</v>
+      </c>
+      <c r="B22" s="40">
+        <f>Лист1!O39</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="40">
+        <f>Лист1!M39</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D22" s="40">
+        <f>Лист1!N39</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="E22" s="40">
+        <f>Лист1!P39</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="F22" s="40">
+        <f>Лист1!L39</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G22" s="40">
+        <f>Лист1!J39</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="H22" s="40">
+        <f>Лист1!G39</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I22" s="40">
+        <f>Лист1!H39</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="J22" s="40">
+        <f>Лист1!K39</f>
+        <v>0.2</v>
+      </c>
+      <c r="K22" s="40">
+        <f>Лист1!I39</f>
+        <v>0.27142857142857141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="35">
+        <v>0</v>
+      </c>
+      <c r="C23" s="35">
+        <f>C22+B23</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D23" s="35">
+        <f t="shared" ref="D23:K23" si="4">D22+C23</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" si="4"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="F23" s="35">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="35">
+        <f t="shared" si="4"/>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="H23" s="35">
+        <f t="shared" si="4"/>
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="I23" s="35">
+        <f t="shared" si="4"/>
+        <v>0.52857142857142858</v>
+      </c>
+      <c r="J23" s="35">
+        <f t="shared" si="4"/>
+        <v>0.72857142857142865</v>
+      </c>
+      <c r="K23" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="str">
+        <f>Лист1!F43</f>
+        <v>Тимоловая</v>
+      </c>
+      <c r="B25" s="34">
+        <f>Лист1!I43</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C25" s="34">
+        <f>Лист1!P43</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D25" s="34">
+        <f>Лист1!O43</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="E25" s="34">
+        <f>Лист1!H43</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F25" s="34">
+        <f>Лист1!N43</f>
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="34">
+        <f>Лист1!G43</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="H25" s="34">
+        <f>Лист1!K43</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="I25" s="34">
+        <f>Лист1!J43</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J25" s="34">
+        <f>Лист1!L43</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K25" s="34">
+        <f>Лист1!M43</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="34">
+        <f>0+B25</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C26" s="34">
+        <f>B26+C25</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D26" s="34">
+        <f t="shared" ref="D26:K26" si="5">C26+D25</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="E26" s="34">
+        <f t="shared" si="5"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" si="5"/>
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="G26" s="34">
+        <f t="shared" si="5"/>
+        <v>0.38571428571428568</v>
+      </c>
+      <c r="H26" s="34">
+        <f t="shared" si="5"/>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" si="5"/>
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="J26" s="34">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="K26" s="34">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="str">
+        <f>Лист1!F47</f>
+        <v>Мочев,креат</v>
+      </c>
+      <c r="B28" s="34">
+        <f>Лист1!O47</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="34">
+        <f>Лист1!H47</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D28" s="34">
+        <f>Лист1!P47</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E28" s="34">
+        <f>Лист1!I47</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="F28" s="34">
+        <f>Лист1!N47</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="G28" s="34">
+        <f>Лист1!M47</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="H28" s="34">
+        <f>Лист1!G47</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="I28" s="34">
+        <f>Лист1!J47</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="J28" s="34">
+        <f>Лист1!K47</f>
+        <v>0.2</v>
+      </c>
+      <c r="K28" s="34">
+        <f>Лист1!L47</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="str">
+        <f>Лист1!F51</f>
+        <v>Общ бел</v>
+      </c>
+      <c r="B31" s="34">
+        <f>Лист1!O51</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C31" s="34">
+        <f>Лист1!H51</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D31" s="34">
+        <f>Лист1!I51</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="E31" s="34">
+        <f>Лист1!N51</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="F31" s="34">
+        <f>Лист1!P51</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="G31" s="34">
+        <f>Лист1!G51</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H31" s="34">
+        <f>Лист1!J51</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="I31" s="34">
+        <f>Лист1!K51</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="J31" s="34">
+        <f>Лист1!L51</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="K31" s="34">
+        <f>Лист1!M51</f>
+        <v>0.17142857142857143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="str">
+        <f>Лист1!F55</f>
+        <v>Fe,жсс</v>
+      </c>
+      <c r="B34" s="34">
+        <f>Лист1!P55</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C34" s="34">
+        <f>Лист1!J55</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="D34" s="34">
+        <f>Лист1!O55</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E34" s="34">
+        <f>Лист1!N55</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F34" s="34">
+        <f>Лист1!I55</f>
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="34">
+        <f>Лист1!M55</f>
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="34">
+        <f>Лист1!H55</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="I34" s="34">
+        <f>Лист1!K55</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="J34" s="34">
+        <f>Лист1!L55</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="K34" s="34">
+        <f>Лист1!G55</f>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+  </sheetData>
+  <sortState columnSort="1" ref="B34:K34">
+    <sortCondition ref="B34:K34"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Копия 1.xlsx
+++ b/Копия 1.xlsx
@@ -650,8 +650,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -830,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -886,32 +886,37 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
@@ -9398,8 +9403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9408,11 +9413,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="str">
-        <f>Лист1!F23</f>
-        <v>ПТИ</v>
-      </c>
-      <c r="B1" s="36"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
@@ -9424,116 +9426,135 @@
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
-        <f>Лист1!I23</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="16">
-        <v>0</v>
-      </c>
+      <c r="A2" s="31"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
-        <f>Лист1!H23</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="B3" s="37">
-        <f>B2+A3</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
-        <f>Лист1!K23</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="B4" s="37">
-        <f t="shared" ref="B4:B11" si="0">B3+A4</f>
-        <v>2.8571428571428571E-2</v>
-      </c>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
-        <f>Лист1!P23</f>
-        <v>1.4285714285714285E-2</v>
-      </c>
-      <c r="B5" s="37">
-        <f t="shared" si="0"/>
-        <v>4.2857142857142858E-2</v>
-      </c>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <f>Лист1!J23</f>
-        <v>4.2857142857142858E-2</v>
-      </c>
-      <c r="B6" s="37">
-        <f t="shared" si="0"/>
-        <v>8.5714285714285715E-2</v>
-      </c>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
-        <f>Лист1!O23</f>
-        <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="B7" s="37">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
-        <f>Лист1!N23</f>
-        <v>0.1</v>
-      </c>
-      <c r="B8" s="37">
-        <f t="shared" si="0"/>
-        <v>0.24285714285714285</v>
-      </c>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
-        <f>Лист1!L23</f>
-        <v>0.15714285714285714</v>
-      </c>
-      <c r="B9" s="37">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="42" t="str">
+        <f>Лист1!F23</f>
+        <v>ПТИ</v>
+      </c>
+      <c r="B10" s="34">
+        <f>Лист1!I23</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="34">
+        <f>Лист1!H23</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D10" s="34">
+        <f>Лист1!K23</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="E10" s="34">
+        <f>Лист1!P23</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="F10" s="34">
+        <f>Лист1!J23</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="G10" s="34">
+        <f>Лист1!O23</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="H10" s="34">
+        <f>Лист1!N23</f>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="34">
+        <f>Лист1!L23</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="J10" s="34">
         <f>Лист1!M23</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="B10" s="37">
+      <c r="K10" s="34">
+        <f>Лист1!G23</f>
+        <v>0.41428571428571431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="34">
+        <v>0</v>
+      </c>
+      <c r="C11" s="36">
+        <f>B11+C10</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="D11" s="36">
+        <f t="shared" ref="D11:K11" si="0">C11+D10</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E11" s="36">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="F11" s="36">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H11" s="36">
+        <f t="shared" si="0"/>
+        <v>0.24285714285714285</v>
+      </c>
+      <c r="I11" s="36">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="36">
         <f t="shared" si="0"/>
         <v>0.58571428571428574</v>
       </c>
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
-        <f>Лист1!G23</f>
-        <v>0.41428571428571431</v>
-      </c>
-      <c r="B11" s="37">
+      <c r="K11" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="28"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="str">
+      <c r="A13" s="37" t="str">
         <f>Лист1!F27</f>
         <v>К,Na</v>
       </c>
@@ -9579,7 +9600,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="35">
         <v>0</v>
       </c>
@@ -9633,53 +9654,53 @@
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="str">
+      <c r="A16" s="39" t="str">
         <f>Лист1!F31</f>
         <v>СРБ,АСО</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="36">
         <f>Лист1!O31</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="36">
         <f>Лист1!P31</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="36">
         <f>Лист1!M31</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="36">
         <f>Лист1!H31</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="36">
         <f>Лист1!N31</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="36">
         <f>Лист1!L31</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="36">
         <f>Лист1!J31</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="36">
         <f>Лист1!I31</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="36">
         <f>Лист1!G31</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="36">
         <f>Лист1!K31</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="35">
         <f>B14+B16</f>
         <v>1.4285714285714285E-2</v>
@@ -9734,53 +9755,53 @@
       <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="str">
+      <c r="A19" s="39" t="str">
         <f>Лист1!F35</f>
         <v>Глюкоза</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="36">
         <f>Лист1!N35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="36">
         <f>Лист1!O35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="36">
         <f>Лист1!P35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="36">
         <f>Лист1!G35</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="36">
         <f>Лист1!I35</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="36">
         <f>Лист1!M35</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="36">
         <f>Лист1!H35</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="36">
         <f>Лист1!J35</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="36">
         <f>Лист1!L35</f>
         <v>0.2</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="36">
         <f>Лист1!K35</f>
         <v>0.24285714285714285</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="35">
         <f>B19+B14</f>
         <v>1.4285714285714285E-2</v>
@@ -9835,53 +9856,53 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="str">
+      <c r="A22" s="39" t="str">
         <f>Лист1!F39</f>
         <v>Холестерин</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="36">
         <f>Лист1!O39</f>
         <v>0</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="36">
         <f>Лист1!M39</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="36">
         <f>Лист1!N39</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="36">
         <f>Лист1!P39</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="36">
         <f>Лист1!L39</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="36">
         <f>Лист1!J39</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="36">
         <f>Лист1!G39</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="36">
         <f>Лист1!H39</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="36">
         <f>Лист1!K39</f>
         <v>0.2</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="36">
         <f>Лист1!I39</f>
         <v>0.27142857142857141</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="35">
         <v>0</v>
       </c>
@@ -9926,7 +9947,7 @@
       <c r="A24" s="33"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="37" t="str">
         <f>Лист1!F43</f>
         <v>Тимоловая</v>
       </c>
@@ -9972,7 +9993,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="34">
         <f>0+B25</f>
         <v>1.4285714285714285E-2</v>
@@ -10015,7 +10036,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="str">
+      <c r="A28" s="37" t="str">
         <f>Лист1!F47</f>
         <v>Мочев,креат</v>
       </c>
@@ -10061,7 +10082,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -10074,7 +10095,7 @@
       <c r="K29" s="16"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="str">
+      <c r="A31" s="37" t="str">
         <f>Лист1!F51</f>
         <v>Общ бел</v>
       </c>
@@ -10120,7 +10141,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -10133,7 +10154,7 @@
       <c r="K32" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="str">
+      <c r="A34" s="37" t="str">
         <f>Лист1!F55</f>
         <v>Fe,жсс</v>
       </c>
@@ -10179,7 +10200,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -10192,10 +10213,10 @@
       <c r="K35" s="16"/>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="B34:K34">
-    <sortCondition ref="B34:K34"/>
+  <sortState columnSort="1" ref="B10:K10">
+    <sortCondition ref="B10:K10"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A34:A35"/>
@@ -10205,6 +10226,7 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Копия 1.xlsx
+++ b/Копия 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -862,7 +862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,14 +903,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,6 +918,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1248,9 @@
     <col min="14" max="14" width="11.28515625" style="7" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" style="7" customWidth="1"/>
     <col min="16" max="16" width="11" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="7"/>
+    <col min="17" max="18" width="9.140625" style="7"/>
+    <col min="19" max="28" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -6206,7 +6212,7 @@
       <c r="DH19" s="11"/>
     </row>
     <row r="20" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6561,59 +6567,89 @@
       <c r="F23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="43">
         <f>G25/$Q$25</f>
         <v>0.41428571428571431</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="43">
         <f t="shared" ref="H23:P23" si="0">H25/$Q$25</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="43">
         <f t="shared" si="0"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="43">
         <f t="shared" si="0"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="43">
         <f t="shared" si="0"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="43">
         <f t="shared" si="0"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="43">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="43">
         <f t="shared" si="0"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="43">
         <f t="shared" si="0"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
+      <c r="S23" s="44">
+        <f>S25/$AC$25</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="T23" s="44">
+        <f t="shared" ref="T23:AB23" si="1">T25/$AC$25</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="U23" s="44">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="V23" s="44">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="W23" s="44">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="X23" s="44">
+        <f t="shared" si="1"/>
+        <v>0.24285714285714285</v>
+      </c>
+      <c r="Y23" s="44">
+        <f t="shared" si="1"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="Z23" s="44">
+        <f t="shared" si="1"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="AA23" s="44">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AB23" s="44">
+        <f t="shared" si="1"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
@@ -6704,7 +6740,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:B41" si="1">MAX(B2:BW2)</f>
+        <f t="shared" ref="B24:B41" si="2">MAX(B2:BW2)</f>
         <v>202</v>
       </c>
       <c r="C24" s="1">
@@ -6787,15 +6823,15 @@
         <v>27</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:C41" si="2">MIN(B3,B3:BW3)</f>
+        <f t="shared" ref="C25:C41" si="3">MIN(B3,B3:BW3)</f>
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:D41" si="3">(B25-C25)/10</f>
+        <f t="shared" ref="D25:D41" si="4">(B25-C25)/10</f>
         <v>4.8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -6867,6 +6903,10 @@
       </c>
       <c r="AB25" s="16">
         <v>4</v>
+      </c>
+      <c r="AC25" s="7">
+        <f>SUM(S25:AB25)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
@@ -6874,15 +6914,15 @@
         <v>28</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8</v>
       </c>
       <c r="F26" s="14"/>
@@ -6902,88 +6942,118 @@
         <v>2</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>356</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35.6</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="43">
         <f>G29/$Q$29</f>
         <v>0.27142857142857141</v>
       </c>
-      <c r="H27" s="28">
-        <f t="shared" ref="H27:P27" si="4">H29/$Q$29</f>
+      <c r="H27" s="43">
+        <f t="shared" ref="H27:P27" si="5">H29/$Q$29</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="I27" s="28">
-        <f t="shared" si="4"/>
+      <c r="I27" s="43">
+        <f t="shared" si="5"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" si="4"/>
+      <c r="J27" s="43">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="K27" s="28">
-        <f t="shared" si="4"/>
+      <c r="K27" s="43">
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="L27" s="28">
-        <f t="shared" si="4"/>
+      <c r="L27" s="43">
+        <f t="shared" si="5"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="M27" s="28">
-        <f t="shared" si="4"/>
+      <c r="M27" s="43">
+        <f t="shared" si="5"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="N27" s="28">
-        <f t="shared" si="4"/>
+      <c r="N27" s="43">
+        <f t="shared" si="5"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="O27" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="28">
-        <f t="shared" si="4"/>
+      <c r="O27" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="43">
+        <f t="shared" si="5"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="R27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
+      <c r="S27" s="45">
+        <f>S29/$AC$29</f>
+        <v>0.47142857142857142</v>
+      </c>
+      <c r="T27" s="45">
+        <f t="shared" ref="T27:AB27" si="6">T29/$AC$29</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U27" s="45">
+        <f t="shared" si="6"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="V27" s="45">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="W27" s="45">
+        <f t="shared" si="6"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="X27" s="45">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="Y27" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="45">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>336</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.1</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -7058,15 +7128,15 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.8</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -7138,6 +7208,10 @@
       </c>
       <c r="AB29" s="2">
         <v>1</v>
+      </c>
+      <c r="AC29" s="7">
+        <f>SUM(S29:AB29)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
@@ -7145,15 +7219,15 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7</v>
       </c>
     </row>
@@ -7162,62 +7236,102 @@
         <v>4</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.2</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="29">
         <f>G33/$Q$33</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="H31" s="31">
-        <f t="shared" ref="H31:P31" si="5">H33/$Q$33</f>
+      <c r="H31" s="29">
+        <f t="shared" ref="H31:P31" si="7">H33/$Q$33</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="I31" s="31">
-        <f t="shared" si="5"/>
+      <c r="I31" s="29">
+        <f t="shared" si="7"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J31" s="31">
-        <f t="shared" si="5"/>
+      <c r="J31" s="29">
+        <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K31" s="31">
-        <f t="shared" si="5"/>
+      <c r="K31" s="29">
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="L31" s="31">
-        <f t="shared" si="5"/>
+      <c r="L31" s="29">
+        <f t="shared" si="7"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="M31" s="31">
-        <f t="shared" si="5"/>
+      <c r="M31" s="29">
+        <f t="shared" si="7"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="N31" s="31">
-        <f t="shared" si="5"/>
+      <c r="N31" s="29">
+        <f t="shared" si="7"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="O31" s="31">
-        <f t="shared" si="5"/>
+      <c r="O31" s="29">
+        <f t="shared" si="7"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="P31" s="31">
-        <f t="shared" si="5"/>
+      <c r="P31" s="29">
+        <f t="shared" si="7"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="R31" s="11" t="s">
         <v>101</v>
+      </c>
+      <c r="S31" s="29">
+        <f>S33/$AC$33</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="T31" s="29">
+        <f t="shared" ref="T31:AB31" si="8">T33/$AC$33</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="U31" s="29">
+        <f t="shared" si="8"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="V31" s="29">
+        <f t="shared" si="8"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="W31" s="29">
+        <f t="shared" si="8"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="X31" s="29">
+        <f t="shared" si="8"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="Y31" s="29">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Z31" s="29">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AA31" s="29">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="AB31" s="29">
+        <f t="shared" si="8"/>
+        <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="32" spans="1:112 16384:16384" x14ac:dyDescent="0.25">
@@ -7225,15 +7339,15 @@
         <v>5</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="F32" s="15" t="s">
@@ -7303,20 +7417,20 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.2</v>
       </c>
       <c r="F33" s="15" t="s">
@@ -7389,102 +7503,146 @@
       <c r="AB33" s="16">
         <v>2</v>
       </c>
+      <c r="AC33" s="7">
+        <f>SUM(S33:AB33)</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.3</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.2</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="29">
         <f>G37/$Q$37</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="H35" s="30">
-        <f t="shared" ref="H35:P35" si="6">H37/$Q$37</f>
+      <c r="H35" s="29">
+        <f t="shared" ref="H35:P35" si="9">H37/$Q$37</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I35" s="30">
-        <f t="shared" si="6"/>
+      <c r="I35" s="29">
+        <f t="shared" si="9"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="J35" s="30">
-        <f t="shared" si="6"/>
+      <c r="J35" s="29">
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="K35" s="30">
-        <f t="shared" si="6"/>
+      <c r="K35" s="29">
+        <f t="shared" si="9"/>
         <v>0.24285714285714285</v>
       </c>
-      <c r="L35" s="30">
-        <f t="shared" si="6"/>
+      <c r="L35" s="29">
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="M35" s="30">
-        <f t="shared" si="6"/>
+      <c r="M35" s="29">
+        <f t="shared" si="9"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="N35" s="30">
-        <f t="shared" si="6"/>
+      <c r="N35" s="29">
+        <f t="shared" si="9"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="O35" s="30">
-        <f t="shared" si="6"/>
+      <c r="O35" s="29">
+        <f t="shared" si="9"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="P35" s="30">
-        <f t="shared" si="6"/>
+      <c r="P35" s="29">
+        <f t="shared" si="9"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="Q35" s="30"/>
+      <c r="Q35" s="29"/>
       <c r="R35" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="S35" s="29">
+        <f>S37/$AC$37</f>
+        <v>0.67142857142857137</v>
+      </c>
+      <c r="T35" s="29">
+        <f t="shared" ref="T35:AB35" si="10">T37/$AC$37</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U35" s="29">
+        <f t="shared" si="10"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="V35" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="29">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.7</v>
       </c>
       <c r="F36" s="15" t="s">
@@ -7554,20 +7712,20 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7</v>
       </c>
       <c r="F37" s="15" t="s">
@@ -7640,109 +7798,145 @@
       <c r="AB37" s="16">
         <v>1</v>
       </c>
+      <c r="AC37" s="7">
+        <f>SUM(S37:AB37)</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="29">
         <f>G41/$Q$41</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H39" s="30">
-        <f t="shared" ref="H39:P39" si="7">H41/$Q$41</f>
+      <c r="H39" s="29">
+        <f t="shared" ref="H39:P39" si="11">H41/$Q$41</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="I39" s="30">
-        <f t="shared" si="7"/>
+      <c r="I39" s="29">
+        <f t="shared" si="11"/>
         <v>0.27142857142857141</v>
       </c>
-      <c r="J39" s="30">
-        <f t="shared" si="7"/>
+      <c r="J39" s="29">
+        <f t="shared" si="11"/>
         <v>0.12857142857142856</v>
       </c>
-      <c r="K39" s="30">
-        <f t="shared" si="7"/>
+      <c r="K39" s="29">
+        <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
-      <c r="L39" s="30">
-        <f t="shared" si="7"/>
+      <c r="L39" s="29">
+        <f t="shared" si="11"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="M39" s="30">
-        <f t="shared" si="7"/>
+      <c r="M39" s="29">
+        <f t="shared" si="11"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="N39" s="30">
-        <f t="shared" si="7"/>
+      <c r="N39" s="29">
+        <f t="shared" si="11"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="O39" s="30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="30">
-        <f t="shared" si="7"/>
+      <c r="O39" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="29">
+        <f t="shared" si="11"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
+      <c r="S39" s="29">
+        <f>S41/$AC$41</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="T39" s="29">
+        <f t="shared" ref="T39:AB39" si="12">T41/$AC$41</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="U39" s="29">
+        <f t="shared" si="12"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="V39" s="29">
+        <f t="shared" si="12"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W39" s="29">
+        <f t="shared" si="12"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="X39" s="29">
+        <f t="shared" si="12"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="Y39" s="29">
+        <f t="shared" si="12"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="Z39" s="29">
+        <f t="shared" si="12"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="AA39" s="29">
+        <f t="shared" si="12"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="AB39" s="29">
+        <f t="shared" si="12"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="F40" s="15" t="s">
@@ -7812,20 +8006,20 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="F41" s="15" t="s">
@@ -7898,60 +8092,104 @@
       <c r="AB41" s="16">
         <v>2</v>
       </c>
+      <c r="AC41" s="7">
+        <f>SUM(S41:AB41)</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="F43" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="28">
         <f>G45/$Q$45</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="H43" s="29">
-        <f t="shared" ref="H43:P43" si="8">H45/$Q$45</f>
+      <c r="H43" s="28">
+        <f t="shared" ref="H43:P43" si="13">H45/$Q$45</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="I43" s="29">
-        <f t="shared" si="8"/>
+      <c r="I43" s="28">
+        <f t="shared" si="13"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="J43" s="29">
-        <f t="shared" si="8"/>
+      <c r="J43" s="28">
+        <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K43" s="29">
-        <f t="shared" si="8"/>
+      <c r="K43" s="28">
+        <f t="shared" si="13"/>
         <v>0.12857142857142856</v>
       </c>
-      <c r="L43" s="29">
-        <f t="shared" si="8"/>
+      <c r="L43" s="28">
+        <f t="shared" si="13"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="M43" s="29">
-        <f t="shared" si="8"/>
+      <c r="M43" s="28">
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="N43" s="29">
-        <f t="shared" si="8"/>
+      <c r="N43" s="28">
+        <f t="shared" si="13"/>
         <v>0.1</v>
       </c>
-      <c r="O43" s="29">
-        <f t="shared" si="8"/>
+      <c r="O43" s="28">
+        <f t="shared" si="13"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="P43" s="29">
-        <f t="shared" si="8"/>
+      <c r="P43" s="28">
+        <f t="shared" si="13"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="R43" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="S43" s="7">
+        <f>S45/$AC$45</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="T43" s="7">
+        <f t="shared" ref="T43:AB43" si="14">T45/$AC$45</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="U43" s="7">
+        <f t="shared" si="14"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="V43" s="7">
+        <f t="shared" si="14"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="W43" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="7">
+        <f t="shared" si="14"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="AB43" s="7">
+        <f t="shared" si="14"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="F44" s="15" t="s">
         <v>56</v>
@@ -8020,7 +8258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="F45" s="15" t="s">
         <v>25</v>
@@ -8092,60 +8330,104 @@
       <c r="AB45" s="16">
         <v>1</v>
       </c>
+      <c r="AC45" s="7">
+        <f>SUM(S45:AB45)</f>
+        <v>70</v>
+      </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="F47" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="29">
         <f>G49/$Q$49</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="H47" s="30">
-        <f t="shared" ref="H47:P47" si="9">H49/$Q$49</f>
+      <c r="H47" s="29">
+        <f t="shared" ref="H47:P47" si="15">H49/$Q$49</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="I47" s="30">
-        <f t="shared" si="9"/>
+      <c r="I47" s="29">
+        <f t="shared" si="15"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="J47" s="30">
-        <f t="shared" si="9"/>
+      <c r="J47" s="29">
+        <f t="shared" si="15"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="K47" s="30">
-        <f t="shared" si="9"/>
+      <c r="K47" s="29">
+        <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
-      <c r="L47" s="30">
-        <f t="shared" si="9"/>
+      <c r="L47" s="29">
+        <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
-      <c r="M47" s="30">
-        <f t="shared" si="9"/>
+      <c r="M47" s="29">
+        <f t="shared" si="15"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="N47" s="30">
-        <f t="shared" si="9"/>
+      <c r="N47" s="29">
+        <f t="shared" si="15"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="O47" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="30">
-        <f t="shared" si="9"/>
+      <c r="O47" s="29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="29">
+        <f t="shared" si="15"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>170</v>
       </c>
+      <c r="S47" s="29">
+        <f>S49/$AC$49</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="T47" s="29">
+        <f t="shared" ref="T47:AB47" si="16">T49/$AC$49</f>
+        <v>0.1</v>
+      </c>
+      <c r="U47" s="29">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="V47" s="29">
+        <f t="shared" si="16"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="W47" s="29">
+        <f t="shared" si="16"/>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="X47" s="29">
+        <f t="shared" si="16"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Y47" s="29">
+        <f t="shared" si="16"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="Z47" s="29">
+        <f t="shared" si="16"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="AA47" s="29">
+        <f t="shared" si="16"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="AB47" s="29">
+        <f t="shared" si="16"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="F48" s="15" t="s">
         <v>135</v>
@@ -8285,53 +8567,97 @@
       <c r="AB49" s="16">
         <v>1</v>
       </c>
+      <c r="AC49" s="7">
+        <f>SUM(S49:AB49)</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F51" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="29">
         <f>G53/$Q$53</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H51" s="30">
-        <f t="shared" ref="H51:P51" si="10">H53/$Q$53</f>
+      <c r="H51" s="29">
+        <f t="shared" ref="H51:P51" si="17">H53/$Q$53</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="I51" s="30">
-        <f t="shared" si="10"/>
+      <c r="I51" s="29">
+        <f t="shared" si="17"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="J51" s="30">
-        <f t="shared" si="10"/>
+      <c r="J51" s="29">
+        <f t="shared" si="17"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="K51" s="30">
-        <f t="shared" si="10"/>
+      <c r="K51" s="29">
+        <f t="shared" si="17"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="L51" s="30">
-        <f t="shared" si="10"/>
+      <c r="L51" s="29">
+        <f t="shared" si="17"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="M51" s="30">
-        <f t="shared" si="10"/>
+      <c r="M51" s="29">
+        <f t="shared" si="17"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="N51" s="30">
-        <f t="shared" si="10"/>
+      <c r="N51" s="29">
+        <f t="shared" si="17"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="O51" s="30">
-        <f t="shared" si="10"/>
+      <c r="O51" s="29">
+        <f t="shared" si="17"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="P51" s="30">
-        <f t="shared" si="10"/>
+      <c r="P51" s="29">
+        <f t="shared" si="17"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="R51" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="S51" s="29">
+        <f>S53/$AC$53</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="T51" s="29">
+        <f t="shared" ref="T51:AB51" si="18">T53/$AC$53</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="U51" s="29">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="V51" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="29">
+        <f t="shared" si="18"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="X51" s="29">
+        <f t="shared" si="18"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="Y51" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="29">
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:75" x14ac:dyDescent="0.25">
@@ -8473,49 +8799,53 @@
       <c r="AB53" s="16">
         <v>0</v>
       </c>
+      <c r="AC53" s="7">
+        <f>SUM(S53:AB53)</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="29">
         <f>G57/$Q$57</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="H55" s="30">
-        <f t="shared" ref="H55:P55" si="11">H57/$Q$57</f>
+      <c r="H55" s="29">
+        <f t="shared" ref="H55:P55" si="19">H57/$Q$57</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="I55" s="30">
-        <f t="shared" si="11"/>
+      <c r="I55" s="29">
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
-      <c r="J55" s="30">
-        <f t="shared" si="11"/>
+      <c r="J55" s="29">
+        <f t="shared" si="19"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="K55" s="30">
-        <f t="shared" si="11"/>
+      <c r="K55" s="29">
+        <f t="shared" si="19"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="L55" s="30">
-        <f t="shared" si="11"/>
+      <c r="L55" s="29">
+        <f t="shared" si="19"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="M55" s="30">
-        <f t="shared" si="11"/>
+      <c r="M55" s="29">
+        <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
-      <c r="N55" s="30">
-        <f t="shared" si="11"/>
+      <c r="N55" s="29">
+        <f t="shared" si="19"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="O55" s="30">
-        <f t="shared" si="11"/>
+      <c r="O55" s="29">
+        <f t="shared" si="19"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="P55" s="30">
-        <f t="shared" si="11"/>
+      <c r="P55" s="29">
+        <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
     </row>
@@ -8597,6 +8927,46 @@
       <c r="F59" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G59" s="29">
+        <f>G61/$Q$61</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="H59" s="29">
+        <f t="shared" ref="H59:P59" si="20">H61/$Q$61</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="I59" s="29">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="J59" s="29">
+        <f t="shared" si="20"/>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="K59" s="29">
+        <f t="shared" si="20"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L59" s="29">
+        <f t="shared" si="20"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="M59" s="29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="29">
+        <f t="shared" si="20"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="P59" s="29">
+        <f t="shared" si="20"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.25">
       <c r="F60" s="15" t="s">
@@ -8655,13 +9025,21 @@
       <c r="L61" s="16">
         <v>2</v>
       </c>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
+      <c r="M61" s="16">
+        <v>0</v>
+      </c>
+      <c r="N61" s="16">
+        <v>0</v>
+      </c>
       <c r="O61" s="16">
         <v>1</v>
       </c>
       <c r="P61" s="16">
         <v>1</v>
+      </c>
+      <c r="Q61" s="7">
+        <f>SUM(G61:P61)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:75" x14ac:dyDescent="0.25">
@@ -8752,295 +9130,295 @@
         <v>201</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ref="C63:BN63" si="12">C5+C6</f>
+        <f t="shared" ref="C63:BN63" si="21">C5+C6</f>
         <v>266</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>238</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>71</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>205</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>223</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>151</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>189</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>82</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>287</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>303</v>
       </c>
       <c r="N63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>209</v>
       </c>
       <c r="O63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>228</v>
       </c>
       <c r="P63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>102</v>
       </c>
       <c r="Q63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>211</v>
       </c>
       <c r="R63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>260</v>
       </c>
       <c r="S63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>146</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>192</v>
       </c>
       <c r="U63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>79</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>273</v>
       </c>
       <c r="W63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
       <c r="X63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>155</v>
       </c>
       <c r="Y63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>218</v>
       </c>
       <c r="Z63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>65</v>
       </c>
       <c r="AA63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>283</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>327</v>
       </c>
       <c r="AC63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>242</v>
       </c>
       <c r="AD63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>215</v>
       </c>
       <c r="AE63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>133</v>
       </c>
       <c r="AF63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>374</v>
       </c>
       <c r="AG63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>400</v>
       </c>
       <c r="AH63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>376</v>
       </c>
       <c r="AI63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>411</v>
       </c>
       <c r="AJ63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>143</v>
       </c>
       <c r="AK63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>531</v>
       </c>
       <c r="AL63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>355</v>
       </c>
       <c r="AM63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>229</v>
       </c>
       <c r="AN63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>279</v>
       </c>
       <c r="AO63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>204</v>
       </c>
       <c r="AP63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>359</v>
       </c>
       <c r="AQ63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>474</v>
       </c>
       <c r="AR63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>386</v>
       </c>
       <c r="AS63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>273</v>
       </c>
       <c r="AT63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>218</v>
       </c>
       <c r="AU63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>292</v>
       </c>
       <c r="AV63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>319</v>
       </c>
       <c r="AW63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>193</v>
       </c>
       <c r="AX63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>243</v>
       </c>
       <c r="AY63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>383</v>
       </c>
       <c r="AZ63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>359</v>
       </c>
       <c r="BA63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>367</v>
       </c>
       <c r="BB63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>184</v>
       </c>
       <c r="BC63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>191</v>
       </c>
       <c r="BD63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>337</v>
       </c>
       <c r="BE63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="BF63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
       <c r="BG63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>128</v>
       </c>
       <c r="BH63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>229</v>
       </c>
       <c r="BI63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>536</v>
       </c>
       <c r="BJ63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>364</v>
       </c>
       <c r="BK63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>296</v>
       </c>
       <c r="BL63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>115</v>
       </c>
       <c r="BM63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>232</v>
       </c>
       <c r="BN63" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>348</v>
       </c>
       <c r="BO63" s="2">
-        <f t="shared" ref="BO63:BW63" si="13">BO5+BO6</f>
+        <f t="shared" ref="BO63:BW63" si="22">BO5+BO6</f>
         <v>486</v>
       </c>
       <c r="BP63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>465</v>
       </c>
       <c r="BQ63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>151</v>
       </c>
       <c r="BR63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>191</v>
       </c>
       <c r="BS63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>309</v>
       </c>
       <c r="BT63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>295</v>
       </c>
       <c r="BU63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>252</v>
       </c>
       <c r="BV63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>113</v>
       </c>
       <c r="BW63" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
     </row>
@@ -9212,21 +9590,21 @@
       <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="25">
         <f>(B65-B64)/10</f>
         <v>48.6</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -9291,46 +9669,46 @@
       <c r="BW66" s="2"/>
     </row>
     <row r="67" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="I67" s="23" t="s">
+      <c r="I67" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="J67" s="23" t="s">
+      <c r="J67" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="K67" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="L67" s="23" t="s">
+      <c r="L67" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="M67" s="24" t="s">
+      <c r="M67" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="N67" s="25"/>
+      <c r="N67" s="24"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -9401,688 +9779,965 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="28"/>
+      <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="28"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="28"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="28"/>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="28"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="28"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="27"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="28"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="str">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="str">
         <f>Лист1!F23</f>
         <v>ПТИ</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <f>Лист1!I23</f>
         <v>0</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <f>Лист1!H23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <f>Лист1!K23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <f>Лист1!P23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <f>Лист1!J23</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <f>Лист1!O23</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <f>Лист1!N23</f>
         <v>0.1</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <f>Лист1!L23</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="33">
         <f>Лист1!M23</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <f>Лист1!G23</f>
         <v>0.41428571428571431</v>
       </c>
+      <c r="N10" s="36" t="str">
+        <f>Лист1!R23</f>
+        <v>Бетта-липо, триглиц</v>
+      </c>
+      <c r="O10" s="33">
+        <f>Лист1!U23</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="P10" s="33">
+        <f>Лист1!V23</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="Q10" s="33">
+        <f>Лист1!W23</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="R10" s="33">
+        <f>Лист1!AB23</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="S10" s="33">
+        <f>Лист1!T23</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="T10" s="33">
+        <f>Лист1!S23</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="U10" s="33">
+        <f>Лист1!Y23</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="V10" s="33">
+        <f>Лист1!AA23</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W10" s="33">
+        <f>Лист1!Z23</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="X10" s="33">
+        <f>Лист1!X23</f>
+        <v>0.24285714285714285</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="34">
-        <v>0</v>
-      </c>
-      <c r="C11" s="36">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="33">
+        <v>0</v>
+      </c>
+      <c r="C11" s="35">
         <f>B11+C10</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <f t="shared" ref="D11:K11" si="0">C11+D10</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f t="shared" si="0"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <f t="shared" si="0"/>
         <v>0.24285714285714285</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <f t="shared" si="0"/>
         <v>0.58571428571428574</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="N11" s="37"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="str">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="str">
         <f>Лист1!F27</f>
         <v>К,Na</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <f>Лист1!O27</f>
         <v>0</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <f>Лист1!M27</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <f>Лист1!N27</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <f>Лист1!P27</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <f>Лист1!L27</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <f>Лист1!J27</f>
         <v>0.1</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="33">
         <f>Лист1!K27</f>
         <v>0.1</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <f>Лист1!I27</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="33">
         <f>Лист1!H27</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f>Лист1!G27</f>
         <v>0.27142857142857141</v>
       </c>
+      <c r="N13" s="36" t="str">
+        <f>Лист1!R27</f>
+        <v>ЛПНВ,ЛПВП</v>
+      </c>
+      <c r="O13" s="33">
+        <f>Лист1!Y27</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
+        <f>Лист1!Z27</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33">
+        <f>Лист1!AA27</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="33">
+        <f>Лист1!AB27</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="S13" s="33">
+        <f>Лист1!X27</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T13" s="33">
+        <f>Лист1!W27</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="U13" s="33">
+        <f>Лист1!V27</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="V13" s="33">
+        <f>Лист1!U27</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="W13" s="33">
+        <f>Лист1!T27</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X13" s="33">
+        <f>Лист1!S27</f>
+        <v>0.47142857142857142</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="35">
-        <v>0</v>
-      </c>
-      <c r="C14" s="35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34">
+        <v>0</v>
+      </c>
+      <c r="C14" s="34">
         <f>B14+C13</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <f t="shared" ref="D14:K14" si="1">C14+D13</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <f t="shared" si="1"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <f t="shared" si="1"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <f t="shared" si="1"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <f t="shared" si="1"/>
         <v>0.72857142857142854</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="N14" s="37"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="str">
         <f>Лист1!F31</f>
         <v>СРБ,АСО</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <f>Лист1!O31</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <f>Лист1!P31</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <f>Лист1!M31</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <f>Лист1!H31</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <f>Лист1!N31</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <f>Лист1!L31</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="35">
         <f>Лист1!J31</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <f>Лист1!I31</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <f>Лист1!G31</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <f>Лист1!K31</f>
         <v>0.2</v>
       </c>
+      <c r="N16" s="36" t="str">
+        <f>Лист1!R31</f>
+        <v>Билир общ</v>
+      </c>
+      <c r="O16" s="33">
+        <f>Лист1!T31</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="P16" s="33">
+        <f>Лист1!AA31</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="Q16" s="33">
+        <f>Лист1!AB31</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="R16" s="33">
+        <f>Лист1!U31</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="S16" s="33">
+        <f>Лист1!Z31</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="T16" s="33">
+        <f>Лист1!V31</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="U16" s="33">
+        <f>Лист1!Y31</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V16" s="33">
+        <f>Лист1!W31</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="W16" s="33">
+        <f>Лист1!X31</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="X16" s="33">
+        <f>Лист1!S31</f>
+        <v>0.22857142857142856</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
-      <c r="B17" s="35">
+      <c r="B17" s="34">
         <f>B14+B16</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <f>B14+C16</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <f t="shared" ref="D17:K17" si="2">D16+C17</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <f t="shared" si="2"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <f t="shared" si="2"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <f t="shared" si="2"/>
         <v>0.44285714285714284</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="34">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <f t="shared" si="2"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="34">
         <f t="shared" si="2"/>
         <v>0.98571428571428577</v>
       </c>
+      <c r="N17" s="37"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="str">
         <f>Лист1!F35</f>
         <v>Глюкоза</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <f>Лист1!N35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <f>Лист1!O35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <f>Лист1!P35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <f>Лист1!G35</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <f>Лист1!I35</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <f>Лист1!M35</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <f>Лист1!H35</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <f>Лист1!J35</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <f>Лист1!L35</f>
         <v>0.2</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <f>Лист1!K35</f>
         <v>0.24285714285714285</v>
       </c>
+      <c r="N19" s="16" t="str">
+        <f>Лист1!R35</f>
+        <v>Билир прям</v>
+      </c>
+      <c r="O19" s="33">
+        <f>Лист1!V35</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <f>Лист1!W35</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33">
+        <f>Лист1!X35</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="33">
+        <f>Лист1!Y35</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="33">
+        <f>Лист1!Z35</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="33">
+        <f>Лист1!AA35</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="33">
+        <f>Лист1!AB35</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="V19" s="33">
+        <f>Лист1!U35</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="W19" s="33">
+        <f>Лист1!T35</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="X19" s="33">
+        <f>Лист1!S35</f>
+        <v>0.67142857142857137</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="35">
+      <c r="B20" s="34">
         <f>B19+B14</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <f>B20+C19</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <f t="shared" ref="D20:K20" si="3">C20+D19</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="34">
         <f t="shared" si="3"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <f t="shared" si="3"/>
         <v>0.12857142857142856</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <f t="shared" si="3"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <f t="shared" si="3"/>
         <v>0.3571428571428571</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <f t="shared" si="3"/>
         <v>0.55714285714285716</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <f t="shared" si="3"/>
         <v>0.75714285714285712</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="str">
         <f>Лист1!F39</f>
         <v>Холестерин</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <f>Лист1!O39</f>
         <v>0</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <f>Лист1!M39</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="35">
         <f>Лист1!N39</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <f>Лист1!P39</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <f>Лист1!L39</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <f>Лист1!J39</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <f>Лист1!G39</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="35">
         <f>Лист1!H39</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="35">
         <f>Лист1!K39</f>
         <v>0.2</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="35">
         <f>Лист1!I39</f>
         <v>0.27142857142857141</v>
       </c>
+      <c r="N22" s="16" t="str">
+        <f>Лист1!R39</f>
+        <v>АЛТ, АСТ</v>
+      </c>
+      <c r="O22" s="33">
+        <f>Лист1!T39</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="P22" s="33">
+        <f>Лист1!AA39</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="Q22" s="33">
+        <f>Лист1!AB39</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="R22" s="33">
+        <f>Лист1!U39</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="S22" s="33">
+        <f>Лист1!Z39</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="T22" s="33">
+        <f>Лист1!S39</f>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="U22" s="33">
+        <f>Лист1!V39</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="V22" s="33">
+        <f>Лист1!X39</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="W22" s="33">
+        <f>Лист1!Y39</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="X22" s="33">
+        <f>Лист1!W39</f>
+        <v>0.18571428571428572</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="35">
-        <v>0</v>
-      </c>
-      <c r="C23" s="35">
+      <c r="B23" s="34">
+        <v>0</v>
+      </c>
+      <c r="C23" s="34">
         <f>C22+B23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <f t="shared" ref="D23:K23" si="4">D22+C23</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="34">
         <f t="shared" si="4"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <f t="shared" si="4"/>
         <v>0.22857142857142856</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <f t="shared" si="4"/>
         <v>0.37142857142857144</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="34">
         <f t="shared" si="4"/>
         <v>0.52857142857142858</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="34">
         <f t="shared" si="4"/>
         <v>0.72857142857142865</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="34">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="str">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="str">
         <f>Лист1!F43</f>
         <v>Тимоловая</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="33">
         <f>Лист1!I43</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <f>Лист1!P43</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <f>Лист1!O43</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <f>Лист1!H43</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="33">
         <f>Лист1!N43</f>
         <v>0.1</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <f>Лист1!G43</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="33">
         <f>Лист1!K43</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <f>Лист1!J43</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="33">
         <f>Лист1!L43</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <f>Лист1!M43</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="34">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="33">
         <f>0+B25</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <f>B26+C25</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <f t="shared" ref="D26:K26" si="5">C26+D25</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <f t="shared" si="5"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="33">
         <f t="shared" si="5"/>
         <v>0.25714285714285712</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="33">
         <f t="shared" si="5"/>
         <v>0.38571428571428568</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="33">
         <f t="shared" si="5"/>
         <v>0.51428571428571423</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="33">
         <f t="shared" si="5"/>
         <v>0.65714285714285703</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="33">
         <f t="shared" si="5"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <f t="shared" si="5"/>
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="str">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="str">
         <f>Лист1!F47</f>
         <v>Мочев,креат</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="33">
         <f>Лист1!O47</f>
         <v>0</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <f>Лист1!H47</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <f>Лист1!P47</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <f>Лист1!I47</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <f>Лист1!N47</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="33">
         <f>Лист1!M47</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="33">
         <f>Лист1!G47</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="I28" s="34">
+      <c r="I28" s="33">
         <f>Лист1!J47</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="33">
         <f>Лист1!K47</f>
         <v>0.2</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="33">
         <f>Лист1!L47</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -10094,54 +10749,54 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="str">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="str">
         <f>Лист1!F51</f>
         <v>Общ бел</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="33">
         <f>Лист1!O51</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <f>Лист1!H51</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <f>Лист1!I51</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <f>Лист1!N51</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="33">
         <f>Лист1!P51</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="33">
         <f>Лист1!G51</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="33">
         <f>Лист1!J51</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="33">
         <f>Лист1!K51</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="33">
         <f>Лист1!L51</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="33">
         <f>Лист1!M51</f>
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -10154,53 +10809,53 @@
       <c r="K32" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="str">
+      <c r="A34" s="36" t="str">
         <f>Лист1!F55</f>
         <v>Fe,жсс</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="33">
         <f>Лист1!P55</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="33">
         <f>Лист1!J55</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <f>Лист1!O55</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="33">
         <f>Лист1!N55</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="33">
         <f>Лист1!I55</f>
         <v>0.1</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="33">
         <f>Лист1!M55</f>
         <v>0.1</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="33">
         <f>Лист1!H55</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="33">
         <f>Лист1!K55</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="33">
         <f>Лист1!L55</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="33">
         <f>Лист1!G55</f>
         <v>0.22857142857142856</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -10212,11 +10867,73 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="str">
+        <f>Лист1!F59</f>
+        <v>Альфа амил</v>
+      </c>
+      <c r="B37" s="33">
+        <f>Лист1!M59</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="33">
+        <f>Лист1!N59</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="33">
+        <f>Лист1!O59</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="E37" s="33">
+        <f>Лист1!P59</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="F37" s="33">
+        <f>Лист1!L59</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="G37" s="33">
+        <f>Лист1!K59</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H37" s="33">
+        <f>Лист1!H59</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="I37" s="33">
+        <f>Лист1!G59</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="J37" s="33">
+        <f>Лист1!J59</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="K37" s="33">
+        <f>Лист1!I59</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+    </row>
   </sheetData>
-  <sortState columnSort="1" ref="B10:K10">
-    <sortCondition ref="B10:K10"/>
+  <sortState columnSort="1" ref="O22:X22">
+    <sortCondition ref="O22:X22"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N16:N17"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A34:A35"/>

--- a/Копия 1.xlsx
+++ b/Копия 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="208">
   <si>
     <t>Исследования</t>
   </si>
@@ -622,9 +622,6 @@
   </si>
   <si>
     <t>390,2-438,8</t>
-  </si>
-  <si>
-    <t>438,8-390,2</t>
   </si>
   <si>
     <t>438,8-487,4</t>
@@ -649,8 +646,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -830,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -885,7 +881,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -897,6 +892,11 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,11 +918,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD67"/>
+  <dimension ref="A1:XFD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1247,10 @@
     <col min="15" max="15" width="10.85546875" style="7" customWidth="1"/>
     <col min="16" max="16" width="11" style="7" customWidth="1"/>
     <col min="17" max="18" width="9.140625" style="7"/>
-    <col min="19" max="28" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="7" customWidth="1"/>
+    <col min="27" max="27" width="12" style="7" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -6331,7 +6332,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -6567,86 +6568,86 @@
       <c r="F23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="35">
         <f>G25/$Q$25</f>
         <v>0.41428571428571431</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="35">
         <f t="shared" ref="H23:P23" si="0">H25/$Q$25</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="35">
         <f t="shared" si="0"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="35">
         <f t="shared" si="0"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="35">
         <f t="shared" si="0"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="35">
         <f t="shared" si="0"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="35">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="35">
         <f t="shared" si="0"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="35">
         <f t="shared" si="0"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="S23" s="44">
+      <c r="S23" s="36">
         <f>S25/$AC$25</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="T23" s="44">
+      <c r="T23" s="36">
         <f t="shared" ref="T23:AB23" si="1">T25/$AC$25</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="U23" s="44">
+      <c r="U23" s="36">
         <f t="shared" si="1"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="V23" s="44">
+      <c r="V23" s="36">
         <f t="shared" si="1"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="W23" s="44">
+      <c r="W23" s="36">
         <f t="shared" si="1"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="X23" s="44">
+      <c r="X23" s="36">
         <f t="shared" si="1"/>
         <v>0.24285714285714285</v>
       </c>
-      <c r="Y23" s="44">
+      <c r="Y23" s="36">
         <f t="shared" si="1"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="Z23" s="44">
+      <c r="Z23" s="36">
         <f t="shared" si="1"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="AA23" s="44">
+      <c r="AA23" s="36">
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AB23" s="44">
+      <c r="AB23" s="36">
         <f t="shared" si="1"/>
         <v>5.7142857142857141E-2</v>
       </c>
@@ -6956,86 +6957,86 @@
       <c r="F27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="35">
         <f>G29/$Q$29</f>
         <v>0.27142857142857141</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="35">
         <f t="shared" ref="H27:P27" si="5">H29/$Q$29</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="35">
         <f t="shared" si="5"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="35">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="35">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="35">
         <f t="shared" si="5"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="35">
         <f t="shared" si="5"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="35">
         <f t="shared" si="5"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O27" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="35">
         <f t="shared" si="5"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="R27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="45">
+      <c r="S27" s="37">
         <f>S29/$AC$29</f>
         <v>0.47142857142857142</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="37">
         <f t="shared" ref="T27:AB27" si="6">T29/$AC$29</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U27" s="45">
+      <c r="U27" s="37">
         <f t="shared" si="6"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="V27" s="45">
+      <c r="V27" s="37">
         <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="W27" s="45">
+      <c r="W27" s="37">
         <f t="shared" si="6"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="X27" s="45">
+      <c r="X27" s="37">
         <f t="shared" si="6"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y27" s="45">
+      <c r="Y27" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="45">
+      <c r="Z27" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="45">
+      <c r="AA27" s="37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="45">
+      <c r="AB27" s="37">
         <f t="shared" si="6"/>
         <v>1.4285714285714285E-2</v>
       </c>
@@ -7250,86 +7251,86 @@
       <c r="F31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="28">
         <f>G33/$Q$33</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="28">
         <f t="shared" ref="H31:P31" si="7">H33/$Q$33</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="28">
         <f t="shared" si="7"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="28">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="28">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L31" s="28">
         <f t="shared" si="7"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="28">
         <f t="shared" si="7"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="28">
         <f t="shared" si="7"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="28">
         <f t="shared" si="7"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="P31" s="29">
+      <c r="P31" s="28">
         <f t="shared" si="7"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="R31" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="S31" s="29">
+      <c r="S31" s="28">
         <f>S33/$AC$33</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="T31" s="29">
+      <c r="T31" s="28">
         <f t="shared" ref="T31:AB31" si="8">T33/$AC$33</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="U31" s="29">
+      <c r="U31" s="28">
         <f t="shared" si="8"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="V31" s="29">
+      <c r="V31" s="28">
         <f t="shared" si="8"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="W31" s="29">
+      <c r="W31" s="28">
         <f t="shared" si="8"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="X31" s="29">
+      <c r="X31" s="28">
         <f t="shared" si="8"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="Y31" s="29">
+      <c r="Y31" s="28">
         <f t="shared" si="8"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Z31" s="29">
+      <c r="Z31" s="28">
         <f t="shared" si="8"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="AA31" s="29">
+      <c r="AA31" s="28">
         <f t="shared" si="8"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="AB31" s="29">
+      <c r="AB31" s="28">
         <f t="shared" si="8"/>
         <v>2.8571428571428571E-2</v>
       </c>
@@ -7544,87 +7545,87 @@
       <c r="F35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="28">
         <f>G37/$Q$37</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="28">
         <f t="shared" ref="H35:P35" si="9">H37/$Q$37</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <f t="shared" si="9"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="J35" s="29">
+      <c r="J35" s="28">
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="28">
         <f t="shared" si="9"/>
         <v>0.24285714285714285</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="28">
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="28">
         <f t="shared" si="9"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="N35" s="29">
+      <c r="N35" s="28">
         <f t="shared" si="9"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O35" s="28">
         <f t="shared" si="9"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="P35" s="29">
+      <c r="P35" s="28">
         <f t="shared" si="9"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="Q35" s="29"/>
+      <c r="Q35" s="28"/>
       <c r="R35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S35" s="29">
+      <c r="S35" s="28">
         <f>S37/$AC$37</f>
         <v>0.67142857142857137</v>
       </c>
-      <c r="T35" s="29">
+      <c r="T35" s="28">
         <f t="shared" ref="T35:AB35" si="10">T37/$AC$37</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="U35" s="29">
+      <c r="U35" s="28">
         <f t="shared" si="10"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W35" s="29">
+      <c r="W35" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X35" s="29">
+      <c r="X35" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="29">
+      <c r="Y35" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="29">
+      <c r="Z35" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="29">
+      <c r="AA35" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="29">
+      <c r="AB35" s="28">
         <f t="shared" si="10"/>
         <v>1.4285714285714285E-2</v>
       </c>
@@ -7839,86 +7840,86 @@
       <c r="F39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="28">
         <f>G41/$Q$41</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <f t="shared" ref="H39:P39" si="11">H41/$Q$41</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <f t="shared" si="11"/>
         <v>0.27142857142857141</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="28">
         <f t="shared" si="11"/>
         <v>0.12857142857142856</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="28">
         <f t="shared" si="11"/>
         <v>0.2</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="28">
         <f t="shared" si="11"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="28">
         <f t="shared" si="11"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="N39" s="29">
+      <c r="N39" s="28">
         <f t="shared" si="11"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="O39" s="29">
+      <c r="O39" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P39" s="29">
+      <c r="P39" s="28">
         <f t="shared" si="11"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S39" s="29">
+      <c r="S39" s="28">
         <f>S41/$AC$41</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="T39" s="29">
+      <c r="T39" s="28">
         <f t="shared" ref="T39:AB39" si="12">T41/$AC$41</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="U39" s="29">
+      <c r="U39" s="28">
         <f t="shared" si="12"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="V39" s="29">
+      <c r="V39" s="28">
         <f t="shared" si="12"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W39" s="29">
+      <c r="W39" s="28">
         <f t="shared" si="12"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="X39" s="29">
+      <c r="X39" s="28">
         <f t="shared" si="12"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="Y39" s="29">
+      <c r="Y39" s="28">
         <f t="shared" si="12"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="Z39" s="29">
+      <c r="Z39" s="28">
         <f t="shared" si="12"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="AA39" s="29">
+      <c r="AA39" s="28">
         <f t="shared" si="12"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="AB39" s="29">
+      <c r="AB39" s="28">
         <f t="shared" si="12"/>
         <v>2.8571428571428571E-2</v>
       </c>
@@ -8148,43 +8149,43 @@
       <c r="R43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="28">
         <f>S45/$AC$45</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="28">
         <f t="shared" ref="T43:AB43" si="14">T45/$AC$45</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="28">
         <f t="shared" si="14"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="28">
         <f t="shared" si="14"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="W43" s="7">
+      <c r="W43" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X43" s="7">
+      <c r="X43" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="7">
+      <c r="Y43" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="7">
+      <c r="Z43" s="28">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="7">
+      <c r="AA43" s="28">
         <f t="shared" si="14"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="AB43" s="7">
+      <c r="AB43" s="28">
         <f t="shared" si="14"/>
         <v>1.4285714285714285E-2</v>
       </c>
@@ -8343,86 +8344,86 @@
       <c r="F47" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="28">
         <f>G49/$Q$49</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="28">
         <f t="shared" ref="H47:P47" si="15">H49/$Q$49</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="28">
         <f t="shared" si="15"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="J47" s="29">
+      <c r="J47" s="28">
         <f t="shared" si="15"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="28">
         <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
-      <c r="L47" s="29">
+      <c r="L47" s="28">
         <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
-      <c r="M47" s="29">
+      <c r="M47" s="28">
         <f t="shared" si="15"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="N47" s="29">
+      <c r="N47" s="28">
         <f t="shared" si="15"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="O47" s="29">
+      <c r="O47" s="28">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="P47" s="29">
+      <c r="P47" s="28">
         <f t="shared" si="15"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="R47" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="S47" s="29">
+      <c r="S47" s="28">
         <f>S49/$AC$49</f>
         <v>0.17142857142857143</v>
       </c>
-      <c r="T47" s="29">
+      <c r="T47" s="28">
         <f t="shared" ref="T47:AB47" si="16">T49/$AC$49</f>
         <v>0.1</v>
       </c>
-      <c r="U47" s="29">
+      <c r="U47" s="28">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="V47" s="29">
+      <c r="V47" s="28">
         <f t="shared" si="16"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="W47" s="29">
+      <c r="W47" s="28">
         <f t="shared" si="16"/>
         <v>0.27142857142857141</v>
       </c>
-      <c r="X47" s="29">
+      <c r="X47" s="28">
         <f t="shared" si="16"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="Y47" s="29">
+      <c r="Y47" s="28">
         <f t="shared" si="16"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="Z47" s="29">
+      <c r="Z47" s="28">
         <f t="shared" si="16"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="AA47" s="29">
+      <c r="AA47" s="28">
         <f t="shared" si="16"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="AB47" s="29">
+      <c r="AB47" s="28">
         <f t="shared" si="16"/>
         <v>1.4285714285714285E-2</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F49" s="15" t="s">
         <v>25</v>
       </c>
@@ -8572,95 +8573,95 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F51" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="28">
         <f>G53/$Q$53</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="28">
         <f t="shared" ref="H51:P51" si="17">H53/$Q$53</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="28">
         <f t="shared" si="17"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="28">
         <f t="shared" si="17"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="28">
         <f t="shared" si="17"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="L51" s="29">
+      <c r="L51" s="28">
         <f t="shared" si="17"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="M51" s="29">
+      <c r="M51" s="28">
         <f t="shared" si="17"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="N51" s="29">
+      <c r="N51" s="28">
         <f t="shared" si="17"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="O51" s="29">
+      <c r="O51" s="28">
         <f t="shared" si="17"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="P51" s="29">
+      <c r="P51" s="28">
         <f t="shared" si="17"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="R51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S51" s="29">
+      <c r="S51" s="28">
         <f>S53/$AC$53</f>
         <v>0.48571428571428571</v>
       </c>
-      <c r="T51" s="29">
+      <c r="T51" s="28">
         <f t="shared" ref="T51:AB51" si="18">T53/$AC$53</f>
         <v>0.34285714285714286</v>
       </c>
-      <c r="U51" s="29">
+      <c r="U51" s="28">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="V51" s="29">
+      <c r="V51" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W51" s="29">
+      <c r="W51" s="28">
         <f t="shared" si="18"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="X51" s="29">
+      <c r="X51" s="28">
         <f t="shared" si="18"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Y51" s="29">
+      <c r="Y51" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="29">
+      <c r="Z51" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA51" s="29">
+      <c r="AA51" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB51" s="29">
+      <c r="AB51" s="28">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F52" s="15" t="s">
         <v>56</v>
       </c>
@@ -8728,7 +8729,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F53" s="15" t="s">
         <v>25</v>
       </c>
@@ -8804,52 +8805,52 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F55" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="28">
         <f>G57/$Q$57</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="28">
         <f t="shared" ref="H55:P55" si="19">H57/$Q$57</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="28">
         <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
-      <c r="J55" s="29">
+      <c r="J55" s="28">
         <f t="shared" si="19"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="28">
         <f t="shared" si="19"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="L55" s="29">
+      <c r="L55" s="28">
         <f t="shared" si="19"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="M55" s="29">
+      <c r="M55" s="28">
         <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
-      <c r="N55" s="29">
+      <c r="N55" s="28">
         <f t="shared" si="19"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="O55" s="29">
+      <c r="O55" s="28">
         <f t="shared" si="19"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="P55" s="29">
+      <c r="P55" s="28">
         <f t="shared" si="19"/>
         <v>1.4285714285714285E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F56" s="15" t="s">
         <v>191</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F57" s="15" t="s">
         <v>25</v>
       </c>
@@ -8923,52 +8924,52 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="28">
         <f>G61/$Q$61</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="H59" s="29">
+      <c r="H59" s="28">
         <f t="shared" ref="H59:P59" si="20">H61/$Q$61</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="I59" s="29">
+      <c r="I59" s="28">
         <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
-      <c r="J59" s="29">
+      <c r="J59" s="28">
         <f t="shared" si="20"/>
         <v>0.22857142857142856</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="28">
         <f t="shared" si="20"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="L59" s="29">
+      <c r="L59" s="28">
         <f t="shared" si="20"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="M59" s="29">
+      <c r="M59" s="28">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N59" s="29">
+      <c r="N59" s="28">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O59" s="29">
+      <c r="O59" s="28">
         <f t="shared" si="20"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="P59" s="29">
+      <c r="P59" s="28">
         <f t="shared" si="20"/>
         <v>1.4285714285714285E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F60" s="15" t="s">
         <v>14</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F61" s="15" t="s">
         <v>25</v>
       </c>
@@ -9042,9 +9043,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="11"/>
@@ -9121,7 +9122,7 @@
       <c r="BV62" s="11"/>
       <c r="BW62" s="11"/>
     </row>
-    <row r="63" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>193</v>
       </c>
@@ -9421,10 +9422,14 @@
         <f t="shared" si="22"/>
         <v>50</v>
       </c>
+      <c r="BX63" s="46">
+        <f>COUNT(B63:BW63)</f>
+        <v>74</v>
+      </c>
     </row>
-    <row r="64" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" s="15">
         <f>MIN(B63:BW63)</f>
@@ -9506,7 +9511,7 @@
     </row>
     <row r="65" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" s="4">
         <f>MAX(B63:BW63)</f>
@@ -9696,17 +9701,13 @@
       <c r="I67" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="J67" s="22" t="s">
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="K67" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="L67" s="22" t="s">
+      <c r="M67" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="N67" s="24"/>
       <c r="O67" s="2"/>
@@ -9771,6 +9772,150 @@
       <c r="BV67" s="2"/>
       <c r="BW67" s="2"/>
     </row>
+    <row r="68" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=50",$B$63:$BW$63,"&lt;98,6")</f>
+        <v>5</v>
+      </c>
+      <c r="C68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=98,6",$B$63:$BW$63,"&lt;147,2")</f>
+        <v>7</v>
+      </c>
+      <c r="D68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=147,2",$B$63:$BW$63,"&lt;195,8")</f>
+        <v>9</v>
+      </c>
+      <c r="E68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=195,8",$B$63:$BW$63,"&lt;244,4")</f>
+        <v>20</v>
+      </c>
+      <c r="F68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=244,4",$B$63:$BW$63,"&lt;293")</f>
+        <v>9</v>
+      </c>
+      <c r="G68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=293",$B$63:$BW$63,"&lt;341,6")</f>
+        <v>7</v>
+      </c>
+      <c r="H68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=341,6",$B$63:$BW$63,"&lt;390,2")</f>
+        <v>10</v>
+      </c>
+      <c r="I68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=390,2",$B$63:$BW$63,"&lt;438,8")</f>
+        <v>2</v>
+      </c>
+      <c r="L68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;438,8",$B$63:$BW$63,"&lt;487,4")</f>
+        <v>3</v>
+      </c>
+      <c r="M68" s="7">
+        <f>COUNTIFS($B$63:$BW$63,"&gt;=487,4",$B$63:$BW$63,"&lt;=536")</f>
+        <v>2</v>
+      </c>
+      <c r="N68" s="7">
+        <f>SUM(B68:M68)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B69" s="28">
+        <f>B68/$N$68</f>
+        <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="C69" s="28">
+        <f>C68/$N$68</f>
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="D69" s="28">
+        <f>D68/$N$68</f>
+        <v>0.12162162162162163</v>
+      </c>
+      <c r="E69" s="28">
+        <f>E68/$N$68</f>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="F69" s="28">
+        <f>F68/$N$68</f>
+        <v>0.12162162162162163</v>
+      </c>
+      <c r="G69" s="28">
+        <f>G68/$N$68</f>
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="H69" s="28">
+        <f>H68/$N$68</f>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="I69" s="28">
+        <f>I68/$N$68</f>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="J69" s="28">
+        <f>J68/$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="28">
+        <f>K68/$N$68</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="28">
+        <f>L68/$N$68</f>
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="M69" s="28">
+        <f>M68/$N$68</f>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="N69" s="28">
+        <f t="shared" ref="C69:N69" si="23">N68/$N$68</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B70" s="7">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="47">
+        <v>1</v>
+      </c>
+      <c r="F70" s="47">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7">
+        <v>1</v>
+      </c>
+      <c r="H70" s="47">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7">
+        <v>1</v>
+      </c>
+      <c r="L70" s="7">
+        <v>1</v>
+      </c>
+      <c r="M70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -9779,204 +9924,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:N14"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
     <col min="15" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="7"/>
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="27"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="27"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="str">
+      <c r="A10" s="43" t="str">
         <f>Лист1!F23</f>
         <v>ПТИ</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <f>Лист1!I23</f>
         <v>0</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <f>Лист1!H23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="32">
         <f>Лист1!K23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <f>Лист1!P23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <f>Лист1!J23</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="32">
         <f>Лист1!O23</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="32">
         <f>Лист1!N23</f>
         <v>0.1</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="32">
         <f>Лист1!L23</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="32">
         <f>Лист1!M23</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="32">
         <f>Лист1!G23</f>
         <v>0.41428571428571431</v>
       </c>
-      <c r="N10" s="36" t="str">
+      <c r="N10" s="38" t="str">
         <f>Лист1!R23</f>
         <v>Бетта-липо, триглиц</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="32">
         <f>Лист1!U23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="32">
         <f>Лист1!V23</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="32">
         <f>Лист1!W23</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="32">
         <f>Лист1!AB23</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="32">
         <f>Лист1!T23</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="32">
         <f>Лист1!S23</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="32">
         <f>Лист1!Y23</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="32">
         <f>Лист1!AA23</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="W10" s="33">
+      <c r="W10" s="32">
         <f>Лист1!Z23</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="X10" s="33">
+      <c r="X10" s="32">
         <f>Лист1!X23</f>
         <v>0.24285714285714285</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="33">
-        <v>0</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="A11" s="44"/>
+      <c r="B11" s="32">
+        <v>0</v>
+      </c>
+      <c r="C11" s="34">
         <f>B11+C10</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <f t="shared" ref="D11:K11" si="0">C11+D10</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <f t="shared" si="0"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <f t="shared" si="0"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <f t="shared" si="0"/>
         <v>0.24285714285714285</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <f t="shared" si="0"/>
         <v>0.58571428571428574</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -9989,137 +10134,137 @@
       <c r="X11" s="16"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="str">
+      <c r="A13" s="38" t="str">
         <f>Лист1!F27</f>
         <v>К,Na</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <f>Лист1!O27</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <f>Лист1!M27</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <f>Лист1!N27</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f>Лист1!P27</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <f>Лист1!L27</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <f>Лист1!J27</f>
         <v>0.1</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <f>Лист1!K27</f>
         <v>0.1</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <f>Лист1!I27</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="32">
         <f>Лист1!H27</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="32">
         <f>Лист1!G27</f>
         <v>0.27142857142857141</v>
       </c>
-      <c r="N13" s="36" t="str">
+      <c r="N13" s="38" t="str">
         <f>Лист1!R27</f>
         <v>ЛПНВ,ЛПВП</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="32">
         <f>Лист1!Y27</f>
         <v>0</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="32">
         <f>Лист1!Z27</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="32">
         <f>Лист1!AA27</f>
         <v>0</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="32">
         <f>Лист1!AB27</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="32">
         <f>Лист1!X27</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="32">
         <f>Лист1!W27</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="32">
         <f>Лист1!V27</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="32">
         <f>Лист1!U27</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="32">
         <f>Лист1!T27</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="32">
         <f>Лист1!S27</f>
         <v>0.47142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="34">
-        <v>0</v>
-      </c>
-      <c r="C14" s="34">
+      <c r="A14" s="39"/>
+      <c r="B14" s="33">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33">
         <f>B14+C13</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <f t="shared" ref="D14:K14" si="1">C14+D13</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <f t="shared" si="1"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <f t="shared" si="1"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <f t="shared" si="1"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="33">
         <f t="shared" si="1"/>
         <v>0.72857142857142854</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N14" s="37"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
@@ -10144,138 +10289,139 @@
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="str">
+      <c r="A16" s="41" t="str">
         <f>Лист1!F31</f>
         <v>СРБ,АСО</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="34">
         <f>Лист1!O31</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <f>Лист1!P31</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <f>Лист1!M31</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <f>Лист1!H31</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="34">
         <f>Лист1!N31</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <f>Лист1!L31</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <f>Лист1!J31</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <f>Лист1!I31</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <f>Лист1!G31</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <f>Лист1!K31</f>
         <v>0.2</v>
       </c>
-      <c r="N16" s="36" t="str">
+      <c r="L16" s="34"/>
+      <c r="N16" s="38" t="str">
         <f>Лист1!R31</f>
         <v>Билир общ</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="32">
         <f>Лист1!T31</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="32">
         <f>Лист1!AA31</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="32">
         <f>Лист1!AB31</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="32">
         <f>Лист1!U31</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="S16" s="33">
+      <c r="S16" s="32">
         <f>Лист1!Z31</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="32">
         <f>Лист1!V31</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="U16" s="33">
+      <c r="U16" s="32">
         <f>Лист1!Y31</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V16" s="33">
+      <c r="V16" s="32">
         <f>Лист1!W31</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="W16" s="33">
+      <c r="W16" s="32">
         <f>Лист1!X31</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X16" s="32">
         <f>Лист1!S31</f>
         <v>0.22857142857142856</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="34">
+      <c r="A17" s="42"/>
+      <c r="B17" s="33">
         <f>B14+B16</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <f>B14+C16</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <f t="shared" ref="D17:K17" si="2">D16+C17</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f t="shared" si="2"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <f t="shared" si="2"/>
         <v>0.18571428571428572</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <f t="shared" si="2"/>
         <v>0.44285714285714284</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="33">
         <f t="shared" si="2"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <f t="shared" si="2"/>
         <v>0.98571428571428577</v>
       </c>
-      <c r="N17" s="37"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
@@ -10300,47 +10446,47 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="str">
+      <c r="A19" s="41" t="str">
         <f>Лист1!F35</f>
         <v>Глюкоза</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="34">
         <f>Лист1!N35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <f>Лист1!O35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <f>Лист1!P35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="34">
         <f>Лист1!G35</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <f>Лист1!I35</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="34">
         <f>Лист1!M35</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <f>Лист1!H35</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="34">
         <f>Лист1!J35</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <f>Лист1!L35</f>
         <v>0.2</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <f>Лист1!K35</f>
         <v>0.24285714285714285</v>
       </c>
@@ -10348,86 +10494,86 @@
         <f>Лист1!R35</f>
         <v>Билир прям</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="32">
         <f>Лист1!V35</f>
         <v>0</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="32">
         <f>Лист1!W35</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="32">
         <f>Лист1!X35</f>
         <v>0</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="32">
         <f>Лист1!Y35</f>
         <v>0</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="32">
         <f>Лист1!Z35</f>
         <v>0</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="32">
         <f>Лист1!AA35</f>
         <v>0</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="32">
         <f>Лист1!AB35</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="V19" s="33">
+      <c r="V19" s="32">
         <f>Лист1!U35</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="W19" s="33">
+      <c r="W19" s="32">
         <f>Лист1!T35</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="X19" s="33">
+      <c r="X19" s="32">
         <f>Лист1!S35</f>
         <v>0.67142857142857137</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="34">
+      <c r="A20" s="42"/>
+      <c r="B20" s="33">
         <f>B19+B14</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <f>B20+C19</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <f t="shared" ref="D20:K20" si="3">C20+D19</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <f t="shared" si="3"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <f t="shared" si="3"/>
         <v>0.12857142857142856</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="33">
         <f t="shared" si="3"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="33">
         <f t="shared" si="3"/>
         <v>0.3571428571428571</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="33">
         <f t="shared" si="3"/>
         <v>0.55714285714285716</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="33">
         <f t="shared" si="3"/>
         <v>0.75714285714285712</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -10456,47 +10602,47 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="str">
+      <c r="A22" s="41" t="str">
         <f>Лист1!F39</f>
         <v>Холестерин</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="34">
         <f>Лист1!O39</f>
         <v>0</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <f>Лист1!M39</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <f>Лист1!N39</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="34">
         <f>Лист1!P39</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <f>Лист1!L39</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="34">
         <f>Лист1!J39</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <f>Лист1!G39</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="34">
         <f>Лист1!H39</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <f>Лист1!K39</f>
         <v>0.2</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="34">
         <f>Лист1!I39</f>
         <v>0.27142857142857141</v>
       </c>
@@ -10504,85 +10650,85 @@
         <f>Лист1!R39</f>
         <v>АЛТ, АСТ</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="32">
         <f>Лист1!T39</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="32">
         <f>Лист1!AA39</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="32">
         <f>Лист1!AB39</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="R22" s="33">
+      <c r="R22" s="32">
         <f>Лист1!U39</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="S22" s="33">
+      <c r="S22" s="32">
         <f>Лист1!Z39</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="T22" s="33">
+      <c r="T22" s="32">
         <f>Лист1!S39</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="U22" s="33">
+      <c r="U22" s="32">
         <f>Лист1!V39</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="V22" s="33">
+      <c r="V22" s="32">
         <f>Лист1!X39</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="W22" s="33">
+      <c r="W22" s="32">
         <f>Лист1!Y39</f>
         <v>0.17142857142857143</v>
       </c>
-      <c r="X22" s="33">
+      <c r="X22" s="32">
         <f>Лист1!W39</f>
         <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="34">
-        <v>0</v>
-      </c>
-      <c r="C23" s="34">
+      <c r="A23" s="42"/>
+      <c r="B23" s="33">
+        <v>0</v>
+      </c>
+      <c r="C23" s="33">
         <f>C22+B23</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <f t="shared" ref="D23:K23" si="4">D22+C23</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f t="shared" si="4"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <f t="shared" si="4"/>
         <v>0.22857142857142856</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <f t="shared" si="4"/>
         <v>0.37142857142857144</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <f t="shared" si="4"/>
         <v>0.52857142857142858</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="33">
         <f t="shared" si="4"/>
         <v>0.72857142857142865</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -10599,145 +10745,247 @@
       <c r="X23" s="16"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="31"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="str">
+      <c r="A25" s="38" t="str">
         <f>Лист1!F43</f>
         <v>Тимоловая</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <f>Лист1!I43</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="32">
         <f>Лист1!P43</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="32">
         <f>Лист1!O43</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <f>Лист1!H43</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="32">
         <f>Лист1!N43</f>
         <v>0.1</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="32">
         <f>Лист1!G43</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="32">
         <f>Лист1!K43</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="32">
         <f>Лист1!J43</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="32">
         <f>Лист1!L43</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="32">
         <f>Лист1!M43</f>
         <v>0.2</v>
       </c>
+      <c r="N25" s="45" t="str">
+        <f>Лист1!R43</f>
+        <v>Мочева кисл</v>
+      </c>
+      <c r="O25" s="32">
+        <f>Лист1!W43</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="32">
+        <f>Лист1!X43</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="32">
+        <f>Лист1!Y43</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="32">
+        <f>Лист1!Z43</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="32">
+        <f>Лист1!AA43</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="T25" s="32">
+        <f>Лист1!AB43</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="U25" s="32">
+        <f>Лист1!U43</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="V25" s="32">
+        <f>Лист1!V43</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="W25" s="32">
+        <f>Лист1!T43</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="X25" s="32">
+        <f>Лист1!S43</f>
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33">
+      <c r="A26" s="39"/>
+      <c r="B26" s="32">
         <f>0+B25</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <f>B26+C25</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="32">
         <f t="shared" ref="D26:K26" si="5">C26+D25</f>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="32">
         <f t="shared" si="5"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="32">
         <f t="shared" si="5"/>
         <v>0.25714285714285712</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <f t="shared" si="5"/>
         <v>0.38571428571428568</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="32">
         <f t="shared" si="5"/>
         <v>0.51428571428571423</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="32">
         <f t="shared" si="5"/>
         <v>0.65714285714285703</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="32">
         <f t="shared" si="5"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="32">
         <f t="shared" si="5"/>
         <v>0.99999999999999978</v>
       </c>
+      <c r="N26" s="45"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="str">
+      <c r="A28" s="38" t="str">
         <f>Лист1!F47</f>
         <v>Мочев,креат</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <f>Лист1!O47</f>
         <v>0</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <f>Лист1!H47</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="32">
         <f>Лист1!P47</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="32">
         <f>Лист1!I47</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="32">
         <f>Лист1!N47</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="32">
         <f>Лист1!M47</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="32">
         <f>Лист1!G47</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="32">
         <f>Лист1!J47</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="32">
         <f>Лист1!K47</f>
         <v>0.2</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="32">
         <f>Лист1!L47</f>
         <v>0.2</v>
       </c>
+      <c r="N28" s="45" t="str">
+        <f>Лист1!R47</f>
+        <v>Щелочн фосф.</v>
+      </c>
+      <c r="O28" s="32">
+        <f>Лист1!AA47</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="P28" s="32">
+        <f>Лист1!AB47</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="Q28" s="32">
+        <f>Лист1!Z47</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="R28" s="32">
+        <f>Лист1!V47</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="S28" s="32">
+        <f>Лист1!Y47</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="T28" s="32">
+        <f>Лист1!T47</f>
+        <v>0.1</v>
+      </c>
+      <c r="U28" s="32">
+        <f>Лист1!U47</f>
+        <v>0.1</v>
+      </c>
+      <c r="V28" s="32">
+        <f>Лист1!X47</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W28" s="32">
+        <f>Лист1!S47</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="X28" s="32">
+        <f>Лист1!W47</f>
+        <v>0.27142857142857141</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -10748,55 +10996,113 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="str">
+      <c r="A31" s="38" t="str">
         <f>Лист1!F51</f>
         <v>Общ бел</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <f>Лист1!O51</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="32">
         <f>Лист1!H51</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="32">
         <f>Лист1!I51</f>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="32">
         <f>Лист1!N51</f>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="32">
         <f>Лист1!P51</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="32">
         <f>Лист1!G51</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="32">
         <f>Лист1!J51</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="32">
         <f>Лист1!K51</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J31" s="33">
+      <c r="J31" s="32">
         <f>Лист1!L51</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="32">
         <f>Лист1!M51</f>
         <v>0.17142857142857143</v>
       </c>
+      <c r="N31" s="45" t="str">
+        <f>Лист1!R51</f>
+        <v>ГГТП</v>
+      </c>
+      <c r="O31" s="32">
+        <f>Лист1!V51</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="32">
+        <f>Лист1!Y51</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="32">
+        <f>Лист1!Z51</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="32">
+        <f>Лист1!AA51</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="32">
+        <f>Лист1!AB51</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="32">
+        <f>Лист1!X51</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="U31" s="32">
+        <f>Лист1!W51</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="V31" s="32">
+        <f>Лист1!U51</f>
+        <v>0.1</v>
+      </c>
+      <c r="W31" s="32">
+        <f>Лист1!T51</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="X31" s="32">
+        <f>Лист1!S51</f>
+        <v>0.48571428571428571</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -10807,55 +11113,70 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="str">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="30"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="str">
         <f>Лист1!F55</f>
         <v>Fe,жсс</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <f>Лист1!P55</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="32">
         <f>Лист1!J55</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="32">
         <f>Лист1!O55</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="32">
         <f>Лист1!N55</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="32">
         <f>Лист1!I55</f>
         <v>0.1</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="32">
         <f>Лист1!M55</f>
         <v>0.1</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="32">
         <f>Лист1!H55</f>
         <v>0.11428571428571428</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="32">
         <f>Лист1!K55</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="32">
         <f>Лист1!L55</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="32">
         <f>Лист1!G55</f>
         <v>0.22857142857142856</v>
       </c>
+      <c r="N34" s="30"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -10866,54 +11187,59 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
+      <c r="N35" s="30"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="30"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="str">
         <f>Лист1!F59</f>
         <v>Альфа амил</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <f>Лист1!M59</f>
         <v>0</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="32">
         <f>Лист1!N59</f>
         <v>0</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="32">
         <f>Лист1!O59</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="32">
         <f>Лист1!P59</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="32">
         <f>Лист1!L59</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="32">
         <f>Лист1!K59</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="32">
         <f>Лист1!H59</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="32">
         <f>Лист1!G59</f>
         <v>0.18571428571428572</v>
       </c>
-      <c r="J37" s="33">
+      <c r="J37" s="32">
         <f>Лист1!J59</f>
         <v>0.22857142857142856</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="32">
         <f>Лист1!I59</f>
         <v>0.3</v>
       </c>
+      <c r="N37" s="30"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -10925,10 +11251,35 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
+      <c r="N38" s="30"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="30"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="30"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="30"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="30"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="30"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="30"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="30"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="30"/>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="O22:X22">
-    <sortCondition ref="O22:X22"/>
+  <sortState columnSort="1" ref="O31:X31">
+    <sortCondition ref="O31:X31"/>
   </sortState>
   <mergeCells count="13">
     <mergeCell ref="N10:N11"/>

--- a/Копия 1.xlsx
+++ b/Копия 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -881,22 +881,25 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,9 +921,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView topLeftCell="A43" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9422,7 +9422,7 @@
         <f t="shared" si="22"/>
         <v>50</v>
       </c>
-      <c r="BX63" s="46">
+      <c r="BX63" s="39">
         <f>COUNT(B63:BW63)</f>
         <v>74</v>
       </c>
@@ -9820,55 +9820,55 @@
     </row>
     <row r="69" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B69" s="28">
-        <f>B68/$N$68</f>
+        <f t="shared" ref="B69:M69" si="23">B68/$N$68</f>
         <v>6.7567567567567571E-2</v>
       </c>
       <c r="C69" s="28">
-        <f>C68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>9.45945945945946E-2</v>
       </c>
       <c r="D69" s="28">
-        <f>D68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>0.12162162162162163</v>
       </c>
       <c r="E69" s="28">
-        <f>E68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>0.27027027027027029</v>
       </c>
       <c r="F69" s="28">
-        <f>F68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>0.12162162162162163</v>
       </c>
       <c r="G69" s="28">
-        <f>G68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>9.45945945945946E-2</v>
       </c>
       <c r="H69" s="28">
-        <f>H68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>0.13513513513513514</v>
       </c>
       <c r="I69" s="28">
-        <f>I68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>2.7027027027027029E-2</v>
       </c>
       <c r="J69" s="28">
-        <f>J68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K69" s="28">
-        <f>K68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L69" s="28">
-        <f>L68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>4.0540540540540543E-2</v>
       </c>
       <c r="M69" s="28">
-        <f>M68/$N$68</f>
+        <f t="shared" si="23"/>
         <v>2.7027027027027029E-2</v>
       </c>
       <c r="N69" s="28">
-        <f t="shared" ref="C69:N69" si="23">N68/$N$68</f>
+        <f t="shared" ref="N69" si="24">N68/$N$68</f>
         <v>1</v>
       </c>
     </row>
@@ -9882,16 +9882,16 @@
       <c r="D70" s="7">
         <v>1</v>
       </c>
-      <c r="E70" s="47">
-        <v>1</v>
-      </c>
-      <c r="F70" s="47">
+      <c r="E70" s="40">
+        <v>1</v>
+      </c>
+      <c r="F70" s="40">
         <v>1</v>
       </c>
       <c r="G70" s="7">
         <v>1</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H70" s="40">
         <v>1</v>
       </c>
       <c r="I70" s="7">
@@ -9926,20 +9926,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="6" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.28515625" customWidth="1"/>
     <col min="15" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -9963,12 +9964,44 @@
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
-      <c r="C4" s="27"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="27"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31">
+        <f>(E11+F10)*1</f>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" ref="G5:K5" si="0">(F11+G10)*1</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.24285714285714285</v>
+      </c>
+      <c r="I5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.58571428571428574</v>
+      </c>
+      <c r="K5" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
@@ -9991,7 +10024,7 @@
       <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="str">
+      <c r="A10" s="46" t="str">
         <f>Лист1!F23</f>
         <v>ПТИ</v>
       </c>
@@ -10035,7 +10068,7 @@
         <f>Лист1!G23</f>
         <v>0.41428571428571431</v>
       </c>
-      <c r="N10" s="38" t="str">
+      <c r="N10" s="41" t="str">
         <f>Лист1!R23</f>
         <v>Бетта-липо, триглиц</v>
       </c>
@@ -10081,7 +10114,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="32">
         <v>0</v>
       </c>
@@ -10090,38 +10123,38 @@
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="D11" s="34">
-        <f t="shared" ref="D11:K11" si="0">C11+D10</f>
+        <f t="shared" ref="D11:K11" si="1">C11+D10</f>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="E11" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2857142857142858E-2</v>
       </c>
       <c r="F11" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="G11" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="H11" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24285714285714285</v>
       </c>
       <c r="I11" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="J11" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58571428571428574</v>
       </c>
       <c r="K11" s="34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="39"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="42"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -10134,7 +10167,7 @@
       <c r="X11" s="16"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="str">
+      <c r="A13" s="41" t="str">
         <f>Лист1!F27</f>
         <v>К,Na</v>
       </c>
@@ -10178,7 +10211,7 @@
         <f>Лист1!G27</f>
         <v>0.27142857142857141</v>
       </c>
-      <c r="N13" s="38" t="str">
+      <c r="N13" s="41" t="str">
         <f>Лист1!R27</f>
         <v>ЛПНВ,ЛПВП</v>
       </c>
@@ -10224,7 +10257,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="33">
         <v>0</v>
       </c>
@@ -10233,38 +10266,38 @@
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="D14" s="33">
-        <f t="shared" ref="D14:K14" si="1">C14+D13</f>
+        <f t="shared" ref="D14:K14" si="2">C14+D13</f>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="E14" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2857142857142858E-2</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="G14" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18571428571428572</v>
       </c>
       <c r="H14" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="I14" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J14" s="33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72857142857142854</v>
       </c>
       <c r="K14" s="33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="39"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="42"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
@@ -10289,7 +10322,7 @@
       <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="str">
+      <c r="A16" s="44" t="str">
         <f>Лист1!F31</f>
         <v>СРБ,АСО</v>
       </c>
@@ -10334,7 +10367,7 @@
         <v>0.2</v>
       </c>
       <c r="L16" s="34"/>
-      <c r="N16" s="38" t="str">
+      <c r="N16" s="41" t="str">
         <f>Лист1!R31</f>
         <v>Билир общ</v>
       </c>
@@ -10380,7 +10413,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="33">
         <f>B14+B16</f>
         <v>1.4285714285714285E-2</v>
@@ -10390,38 +10423,38 @@
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="D17" s="33">
-        <f t="shared" ref="D17:K17" si="2">D16+C17</f>
+        <f t="shared" ref="D17:K17" si="3">D16+C17</f>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="E17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11428571428571428</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18571428571428572</v>
       </c>
       <c r="G17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="H17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44285714285714284</v>
       </c>
       <c r="I17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="J17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="K17" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98571428571428577</v>
       </c>
-      <c r="N17" s="39"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
@@ -10446,7 +10479,7 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="str">
+      <c r="A19" s="44" t="str">
         <f>Лист1!F35</f>
         <v>Глюкоза</v>
       </c>
@@ -10536,7 +10569,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="33">
         <f>B19+B14</f>
         <v>1.4285714285714285E-2</v>
@@ -10546,35 +10579,35 @@
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="D20" s="33">
-        <f t="shared" ref="D20:K20" si="3">C20+D19</f>
+        <f t="shared" ref="D20:K20" si="4">C20+D19</f>
         <v>4.2857142857142858E-2</v>
       </c>
       <c r="E20" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="F20" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12857142857142856</v>
       </c>
       <c r="G20" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="H20" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3571428571428571</v>
       </c>
       <c r="I20" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55714285714285716</v>
       </c>
       <c r="J20" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75714285714285712</v>
       </c>
       <c r="K20" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N20" s="16"/>
@@ -10602,7 +10635,7 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="str">
+      <c r="A22" s="44" t="str">
         <f>Лист1!F39</f>
         <v>Холестерин</v>
       </c>
@@ -10692,7 +10725,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="33">
         <v>0</v>
       </c>
@@ -10701,35 +10734,35 @@
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="D23" s="33">
-        <f t="shared" ref="D23:K23" si="4">D22+C23</f>
+        <f t="shared" ref="D23:K23" si="5">D22+C23</f>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="E23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="F23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="G23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22857142857142856</v>
       </c>
       <c r="H23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37142857142857144</v>
       </c>
       <c r="I23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52857142857142858</v>
       </c>
       <c r="J23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72857142857142865</v>
       </c>
       <c r="K23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N23" s="16"/>
@@ -10748,7 +10781,7 @@
       <c r="A24" s="31"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="41" t="str">
         <f>Лист1!F43</f>
         <v>Тимоловая</v>
       </c>
@@ -10792,7 +10825,7 @@
         <f>Лист1!M43</f>
         <v>0.2</v>
       </c>
-      <c r="N25" s="45" t="str">
+      <c r="N25" s="38" t="str">
         <f>Лист1!R43</f>
         <v>Мочева кисл</v>
       </c>
@@ -10838,7 +10871,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="32">
         <f>0+B25</f>
         <v>1.4285714285714285E-2</v>
@@ -10848,38 +10881,38 @@
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="D26" s="32">
-        <f t="shared" ref="D26:K26" si="5">C26+D25</f>
+        <f t="shared" ref="D26:K26" si="6">C26+D25</f>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="E26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15714285714285714</v>
       </c>
       <c r="F26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25714285714285712</v>
       </c>
       <c r="G26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38571428571428568</v>
       </c>
       <c r="H26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51428571428571423</v>
       </c>
       <c r="I26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.65714285714285703</v>
       </c>
       <c r="J26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="K26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.99999999999999978</v>
       </c>
-      <c r="N26" s="45"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
@@ -10895,7 +10928,7 @@
       <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="str">
+      <c r="A28" s="41" t="str">
         <f>Лист1!F47</f>
         <v>Мочев,креат</v>
       </c>
@@ -10939,7 +10972,7 @@
         <f>Лист1!L47</f>
         <v>0.2</v>
       </c>
-      <c r="N28" s="45" t="str">
+      <c r="N28" s="38" t="str">
         <f>Лист1!R47</f>
         <v>Щелочн фосф.</v>
       </c>
@@ -10985,7 +11018,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -10996,7 +11029,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
-      <c r="N29" s="45"/>
+      <c r="N29" s="38"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
@@ -11012,7 +11045,7 @@
       <c r="N30" s="30"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="str">
+      <c r="A31" s="41" t="str">
         <f>Лист1!F51</f>
         <v>Общ бел</v>
       </c>
@@ -11056,7 +11089,7 @@
         <f>Лист1!M51</f>
         <v>0.17142857142857143</v>
       </c>
-      <c r="N31" s="45" t="str">
+      <c r="N31" s="38" t="str">
         <f>Лист1!R51</f>
         <v>ГГТП</v>
       </c>
@@ -11102,7 +11135,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -11113,7 +11146,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-      <c r="N32" s="45"/>
+      <c r="N32" s="38"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
@@ -11129,7 +11162,7 @@
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="str">
+      <c r="A34" s="41" t="str">
         <f>Лист1!F55</f>
         <v>Fe,жсс</v>
       </c>
@@ -11176,7 +11209,7 @@
       <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -11282,11 +11315,6 @@
     <sortCondition ref="O31:X31"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A13:A14"/>
@@ -11295,6 +11323,11 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -11303,12 +11336,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="str">
+        <f>Лист2!A10</f>
+        <v>ПТИ</v>
+      </c>
+      <c r="B3" s="31">
+        <f>Лист2!C10</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="C3" s="31">
+        <f>Лист2!F10</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="D3" s="31">
+        <f>Лист2!G10</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="E3" s="31">
+        <f>Лист2!H10</f>
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="31">
+        <f>Лист2!I10</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="G3" s="31">
+        <f>Лист2!J10</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="H3" s="31">
+        <f>Лист2!K10</f>
+        <v>0.41428571428571431</v>
+      </c>
+      <c r="I3" s="31">
+        <f>SUM(B3:H3)</f>
+        <v>0.97142857142857153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31">
+        <f t="shared" ref="B4:F4" si="0">C4-C3</f>
+        <v>4.2857142857142774E-2</v>
+      </c>
+      <c r="C4" s="31">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285632E-2</v>
+      </c>
+      <c r="D4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714277</v>
+      </c>
+      <c r="E4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.24285714285714277</v>
+      </c>
+      <c r="F4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="G4" s="31">
+        <f>H4-H3</f>
+        <v>0.58571428571428563</v>
+      </c>
+      <c r="H4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
